--- a/database/industries/siman/seshargh/product/monthly.xlsx
+++ b/database/industries/siman/seshargh/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\seshargh\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\seshargh\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FDF781-6B34-4174-B7DB-329007DE941C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C679C36-0862-4933-8FDD-CB168129A908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="77">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>سشرق-سیمان‌ شرق‌</t>
@@ -37,12 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 2 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 3 منتهی به 1397/09</t>
-  </si>
-  <si>
     <t>ماه 4 منتهی به 1397/10</t>
   </si>
   <si>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 3 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 4 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 5 منتهی به 1401/11</t>
   </si>
   <si>
     <t>کلینکر</t>
@@ -733,12 +733,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -793,7 +793,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -850,7 +850,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -907,7 +907,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -962,7 +962,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1019,7 +1019,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1076,7 +1076,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1131,7 +1131,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1343,7 +1343,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1400,7 +1400,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1435,11 +1435,11 @@
       <c r="M11" s="11">
         <v>0</v>
       </c>
-      <c r="N11" s="11">
-        <v>0</v>
-      </c>
-      <c r="O11" s="11">
-        <v>0</v>
+      <c r="N11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="P11" s="11" t="s">
         <v>57</v>
@@ -1559,7 +1559,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1568,157 +1568,157 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>126038</v>
+        <v>124666</v>
       </c>
       <c r="F12" s="13">
-        <v>146826</v>
+        <v>141638</v>
       </c>
       <c r="G12" s="13">
-        <v>124666</v>
+        <v>189735</v>
       </c>
       <c r="H12" s="13">
-        <v>141638</v>
+        <v>135459</v>
       </c>
       <c r="I12" s="13">
-        <v>189735</v>
+        <v>197829</v>
       </c>
       <c r="J12" s="13">
-        <v>135459</v>
+        <v>189453</v>
       </c>
       <c r="K12" s="13">
-        <v>197829</v>
+        <v>188436</v>
       </c>
       <c r="L12" s="13">
-        <v>189453</v>
+        <v>159569</v>
       </c>
       <c r="M12" s="13">
-        <v>188436</v>
+        <v>171209</v>
       </c>
       <c r="N12" s="13">
-        <v>159569</v>
+        <v>159740</v>
       </c>
       <c r="O12" s="13">
-        <v>171209</v>
+        <v>138860</v>
       </c>
       <c r="P12" s="13">
-        <v>159740</v>
+        <v>149158</v>
       </c>
       <c r="Q12" s="13">
-        <v>138860</v>
+        <v>128982</v>
       </c>
       <c r="R12" s="13">
-        <v>149158</v>
+        <v>161322</v>
       </c>
       <c r="S12" s="13">
-        <v>128982</v>
+        <v>159894</v>
       </c>
       <c r="T12" s="13">
-        <v>161322</v>
+        <v>122099</v>
       </c>
       <c r="U12" s="13">
-        <v>159894</v>
+        <v>172590</v>
       </c>
       <c r="V12" s="13">
-        <v>122099</v>
+        <v>186855</v>
       </c>
       <c r="W12" s="13">
-        <v>172590</v>
+        <v>167502</v>
       </c>
       <c r="X12" s="13">
-        <v>186855</v>
+        <v>142092</v>
       </c>
       <c r="Y12" s="13">
-        <v>167502</v>
+        <v>110073</v>
       </c>
       <c r="Z12" s="13">
-        <v>142092</v>
+        <v>165203</v>
       </c>
       <c r="AA12" s="13">
-        <v>110073</v>
+        <v>148460</v>
       </c>
       <c r="AB12" s="13">
-        <v>165203</v>
+        <v>127240</v>
       </c>
       <c r="AC12" s="13">
-        <v>148460</v>
+        <v>131094</v>
       </c>
       <c r="AD12" s="13">
-        <v>127240</v>
+        <v>102957</v>
       </c>
       <c r="AE12" s="13">
-        <v>131094</v>
+        <v>170779</v>
       </c>
       <c r="AF12" s="13">
-        <v>102957</v>
+        <v>128789</v>
       </c>
       <c r="AG12" s="13">
-        <v>170779</v>
+        <v>156144</v>
       </c>
       <c r="AH12" s="13">
-        <v>128789</v>
+        <v>175539</v>
       </c>
       <c r="AI12" s="13">
-        <v>156144</v>
+        <v>120030</v>
       </c>
       <c r="AJ12" s="13">
-        <v>175539</v>
+        <v>84260</v>
       </c>
       <c r="AK12" s="13">
-        <v>120030</v>
+        <v>162740</v>
       </c>
       <c r="AL12" s="13">
-        <v>84260</v>
+        <v>149549</v>
       </c>
       <c r="AM12" s="13">
-        <v>162740</v>
+        <v>141959</v>
       </c>
       <c r="AN12" s="13">
-        <v>149549</v>
+        <v>119514</v>
       </c>
       <c r="AO12" s="13">
-        <v>141959</v>
+        <v>97342</v>
       </c>
       <c r="AP12" s="13">
-        <v>119514</v>
+        <v>86630</v>
       </c>
       <c r="AQ12" s="13">
-        <v>97342</v>
+        <v>115248</v>
       </c>
       <c r="AR12" s="13">
-        <v>86630</v>
+        <v>87850</v>
       </c>
       <c r="AS12" s="13">
-        <v>115248</v>
+        <v>110088</v>
       </c>
       <c r="AT12" s="13">
-        <v>87850</v>
+        <v>110163</v>
       </c>
       <c r="AU12" s="13">
-        <v>110088</v>
+        <v>139888</v>
       </c>
       <c r="AV12" s="13">
-        <v>110163</v>
+        <v>139500</v>
       </c>
       <c r="AW12" s="13">
-        <v>139888</v>
+        <v>163852</v>
       </c>
       <c r="AX12" s="13">
-        <v>139500</v>
+        <v>150786</v>
       </c>
       <c r="AY12" s="13">
-        <v>163852</v>
+        <v>174698</v>
       </c>
       <c r="AZ12" s="13">
-        <v>150786</v>
+        <v>143543</v>
       </c>
       <c r="BA12" s="13">
-        <v>174698</v>
+        <v>103887</v>
       </c>
       <c r="BB12" s="13">
-        <v>143543</v>
+        <v>114554</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1789,11 +1789,11 @@
       <c r="Y13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA13" s="11" t="s">
-        <v>57</v>
+      <c r="Z13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="11">
+        <v>0</v>
       </c>
       <c r="AB13" s="11">
         <v>0</v>
@@ -1825,11 +1825,11 @@
       <c r="AK13" s="11">
         <v>0</v>
       </c>
-      <c r="AL13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="11">
-        <v>0</v>
+      <c r="AL13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM13" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AN13" s="11" t="s">
         <v>57</v>
@@ -1877,7 +1877,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -1927,116 +1927,116 @@
       <c r="R14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="S14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="T14" s="13" t="s">
-        <v>57</v>
+      <c r="S14" s="13">
+        <v>11612</v>
+      </c>
+      <c r="T14" s="13">
+        <v>12492</v>
       </c>
       <c r="U14" s="13">
-        <v>11612</v>
+        <v>12790</v>
       </c>
       <c r="V14" s="13">
-        <v>12492</v>
+        <v>11675</v>
       </c>
       <c r="W14" s="13">
-        <v>12790</v>
+        <v>10855</v>
       </c>
       <c r="X14" s="13">
-        <v>11675</v>
+        <v>12667</v>
       </c>
       <c r="Y14" s="13">
-        <v>10855</v>
+        <v>12927</v>
       </c>
       <c r="Z14" s="13">
-        <v>12667</v>
+        <v>12944</v>
       </c>
       <c r="AA14" s="13">
-        <v>12927</v>
+        <v>12497</v>
       </c>
       <c r="AB14" s="13">
-        <v>12944</v>
+        <v>12192</v>
       </c>
       <c r="AC14" s="13">
-        <v>12497</v>
+        <v>2433</v>
       </c>
       <c r="AD14" s="13">
-        <v>12192</v>
+        <v>9578</v>
       </c>
       <c r="AE14" s="13">
-        <v>2433</v>
+        <v>10765</v>
       </c>
       <c r="AF14" s="13">
-        <v>9578</v>
+        <v>12106</v>
       </c>
       <c r="AG14" s="13">
-        <v>10765</v>
+        <v>13057</v>
       </c>
       <c r="AH14" s="13">
-        <v>12106</v>
+        <v>11399</v>
       </c>
       <c r="AI14" s="13">
-        <v>13057</v>
+        <v>11191</v>
       </c>
       <c r="AJ14" s="13">
-        <v>11399</v>
+        <v>10594</v>
       </c>
       <c r="AK14" s="13">
-        <v>11191</v>
+        <v>11318</v>
       </c>
       <c r="AL14" s="13">
-        <v>10594</v>
+        <v>11101</v>
       </c>
       <c r="AM14" s="13">
-        <v>11318</v>
+        <v>12308</v>
       </c>
       <c r="AN14" s="13">
-        <v>11101</v>
+        <v>11677</v>
       </c>
       <c r="AO14" s="13">
-        <v>12308</v>
+        <v>7107</v>
       </c>
       <c r="AP14" s="13">
-        <v>11677</v>
+        <v>4267</v>
       </c>
       <c r="AQ14" s="13">
-        <v>7107</v>
+        <v>4700</v>
       </c>
       <c r="AR14" s="13">
-        <v>4267</v>
+        <v>11870</v>
       </c>
       <c r="AS14" s="13">
-        <v>4700</v>
+        <v>11533</v>
       </c>
       <c r="AT14" s="13">
-        <v>11870</v>
+        <v>11027</v>
       </c>
       <c r="AU14" s="13">
-        <v>11533</v>
+        <v>7322</v>
       </c>
       <c r="AV14" s="13">
-        <v>11027</v>
-      </c>
-      <c r="AW14" s="13">
-        <v>7322</v>
+        <v>7191</v>
+      </c>
+      <c r="AW14" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AX14" s="13">
-        <v>7191</v>
-      </c>
-      <c r="AY14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ14" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA14" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AY14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA14" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="BB14" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
@@ -2107,11 +2107,11 @@
       <c r="Y15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z15" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA15" s="11" t="s">
-        <v>57</v>
+      <c r="Z15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="11">
+        <v>0</v>
       </c>
       <c r="AB15" s="11">
         <v>0</v>
@@ -2143,11 +2143,11 @@
       <c r="AK15" s="11">
         <v>0</v>
       </c>
-      <c r="AL15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="11">
-        <v>0</v>
+      <c r="AL15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM15" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AN15" s="11" t="s">
         <v>57</v>
@@ -2195,7 +2195,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>62</v>
       </c>
@@ -2252,7 +2252,7 @@
       <c r="BA16" s="15"/>
       <c r="BB16" s="15"/>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
         <v>63</v>
       </c>
@@ -2321,11 +2321,11 @@
       <c r="Y17" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Z17" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA17" s="17" t="s">
-        <v>57</v>
+      <c r="Z17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="17">
+        <v>0</v>
       </c>
       <c r="AB17" s="17">
         <v>0</v>
@@ -2409,164 +2409,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>64</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19">
-        <v>126038</v>
+        <v>124666</v>
       </c>
       <c r="F18" s="19">
-        <v>146826</v>
+        <v>141638</v>
       </c>
       <c r="G18" s="19">
-        <v>124666</v>
+        <v>189735</v>
       </c>
       <c r="H18" s="19">
-        <v>141638</v>
+        <v>135459</v>
       </c>
       <c r="I18" s="19">
-        <v>189735</v>
+        <v>197829</v>
       </c>
       <c r="J18" s="19">
-        <v>135459</v>
+        <v>189453</v>
       </c>
       <c r="K18" s="19">
-        <v>197829</v>
+        <v>188436</v>
       </c>
       <c r="L18" s="19">
-        <v>189453</v>
+        <v>159569</v>
       </c>
       <c r="M18" s="19">
-        <v>188436</v>
+        <v>171209</v>
       </c>
       <c r="N18" s="19">
-        <v>159569</v>
+        <v>159740</v>
       </c>
       <c r="O18" s="19">
-        <v>171209</v>
+        <v>138860</v>
       </c>
       <c r="P18" s="19">
-        <v>159740</v>
+        <v>149158</v>
       </c>
       <c r="Q18" s="19">
-        <v>138860</v>
+        <v>128982</v>
       </c>
       <c r="R18" s="19">
-        <v>149158</v>
+        <v>161322</v>
       </c>
       <c r="S18" s="19">
-        <v>128982</v>
+        <v>171506</v>
       </c>
       <c r="T18" s="19">
-        <v>161322</v>
+        <v>134591</v>
       </c>
       <c r="U18" s="19">
-        <v>171506</v>
+        <v>185380</v>
       </c>
       <c r="V18" s="19">
-        <v>134591</v>
+        <v>198530</v>
       </c>
       <c r="W18" s="19">
-        <v>185380</v>
+        <v>178357</v>
       </c>
       <c r="X18" s="19">
-        <v>198530</v>
+        <v>154759</v>
       </c>
       <c r="Y18" s="19">
-        <v>178357</v>
+        <v>123000</v>
       </c>
       <c r="Z18" s="19">
-        <v>154759</v>
+        <v>178147</v>
       </c>
       <c r="AA18" s="19">
-        <v>123000</v>
+        <v>160957</v>
       </c>
       <c r="AB18" s="19">
-        <v>178147</v>
+        <v>139432</v>
       </c>
       <c r="AC18" s="19">
-        <v>160957</v>
+        <v>133527</v>
       </c>
       <c r="AD18" s="19">
-        <v>139432</v>
+        <v>112535</v>
       </c>
       <c r="AE18" s="19">
-        <v>133527</v>
+        <v>181544</v>
       </c>
       <c r="AF18" s="19">
-        <v>112535</v>
+        <v>140895</v>
       </c>
       <c r="AG18" s="19">
-        <v>181544</v>
+        <v>169201</v>
       </c>
       <c r="AH18" s="19">
-        <v>140895</v>
+        <v>186938</v>
       </c>
       <c r="AI18" s="19">
-        <v>169201</v>
+        <v>131221</v>
       </c>
       <c r="AJ18" s="19">
-        <v>186938</v>
+        <v>94854</v>
       </c>
       <c r="AK18" s="19">
-        <v>131221</v>
+        <v>174058</v>
       </c>
       <c r="AL18" s="19">
-        <v>94854</v>
+        <v>160650</v>
       </c>
       <c r="AM18" s="19">
-        <v>174058</v>
+        <v>154267</v>
       </c>
       <c r="AN18" s="19">
-        <v>160650</v>
+        <v>131191</v>
       </c>
       <c r="AO18" s="19">
-        <v>154267</v>
+        <v>104449</v>
       </c>
       <c r="AP18" s="19">
-        <v>131191</v>
+        <v>90897</v>
       </c>
       <c r="AQ18" s="19">
-        <v>104449</v>
+        <v>119948</v>
       </c>
       <c r="AR18" s="19">
-        <v>90897</v>
+        <v>99720</v>
       </c>
       <c r="AS18" s="19">
-        <v>119948</v>
+        <v>121621</v>
       </c>
       <c r="AT18" s="19">
-        <v>99720</v>
+        <v>121190</v>
       </c>
       <c r="AU18" s="19">
-        <v>121621</v>
+        <v>147210</v>
       </c>
       <c r="AV18" s="19">
-        <v>121190</v>
+        <v>146691</v>
       </c>
       <c r="AW18" s="19">
-        <v>147210</v>
+        <v>163852</v>
       </c>
       <c r="AX18" s="19">
-        <v>146691</v>
+        <v>150786</v>
       </c>
       <c r="AY18" s="19">
-        <v>163852</v>
+        <v>174698</v>
       </c>
       <c r="AZ18" s="19">
-        <v>150786</v>
+        <v>143543</v>
       </c>
       <c r="BA18" s="19">
-        <v>174698</v>
+        <v>103887</v>
       </c>
       <c r="BB18" s="19">
-        <v>143543</v>
+        <v>114554</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2621,7 +2621,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2676,7 +2676,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2731,7 +2731,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>65</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2943,7 +2943,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>65</v>
       </c>
@@ -3000,7 +3000,7 @@
       <c r="BA24" s="9"/>
       <c r="BB24" s="9"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>55</v>
       </c>
@@ -3009,37 +3009,37 @@
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11">
-        <v>418</v>
+        <v>543</v>
       </c>
       <c r="F25" s="11">
-        <v>0</v>
+        <v>548</v>
       </c>
       <c r="G25" s="11">
-        <v>543</v>
+        <v>940</v>
       </c>
       <c r="H25" s="11">
-        <v>548</v>
+        <v>445</v>
       </c>
       <c r="I25" s="11">
-        <v>940</v>
+        <v>2603</v>
       </c>
       <c r="J25" s="11">
-        <v>445</v>
+        <v>570</v>
       </c>
       <c r="K25" s="11">
-        <v>2603</v>
+        <v>0</v>
       </c>
       <c r="L25" s="11">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="M25" s="11">
         <v>0</v>
       </c>
-      <c r="N25" s="11">
-        <v>0</v>
-      </c>
-      <c r="O25" s="11">
-        <v>0</v>
+      <c r="N25" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O25" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="P25" s="11" t="s">
         <v>57</v>
@@ -3159,7 +3159,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>58</v>
       </c>
@@ -3168,157 +3168,157 @@
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13">
-        <v>130725</v>
+        <v>128349</v>
       </c>
       <c r="F26" s="13">
-        <v>141989</v>
+        <v>141095</v>
       </c>
       <c r="G26" s="13">
-        <v>128349</v>
+        <v>185180</v>
       </c>
       <c r="H26" s="13">
-        <v>141095</v>
+        <v>143387</v>
       </c>
       <c r="I26" s="13">
-        <v>185180</v>
+        <v>191311</v>
       </c>
       <c r="J26" s="13">
-        <v>143387</v>
+        <v>188894</v>
       </c>
       <c r="K26" s="13">
-        <v>191311</v>
+        <v>194888</v>
       </c>
       <c r="L26" s="13">
-        <v>188894</v>
+        <v>162967</v>
       </c>
       <c r="M26" s="13">
-        <v>194888</v>
+        <v>158032</v>
       </c>
       <c r="N26" s="13">
-        <v>162967</v>
+        <v>157873</v>
       </c>
       <c r="O26" s="13">
-        <v>158032</v>
+        <v>121811</v>
       </c>
       <c r="P26" s="13">
-        <v>157873</v>
+        <v>140096</v>
       </c>
       <c r="Q26" s="13">
-        <v>121811</v>
+        <v>121070</v>
       </c>
       <c r="R26" s="13">
-        <v>140096</v>
+        <v>167440</v>
       </c>
       <c r="S26" s="13">
-        <v>121070</v>
+        <v>176186</v>
       </c>
       <c r="T26" s="13">
-        <v>167440</v>
+        <v>104470</v>
       </c>
       <c r="U26" s="13">
-        <v>176186</v>
+        <v>170406</v>
       </c>
       <c r="V26" s="13">
-        <v>104470</v>
+        <v>184777</v>
       </c>
       <c r="W26" s="13">
-        <v>170406</v>
+        <v>174237</v>
       </c>
       <c r="X26" s="13">
-        <v>184777</v>
+        <v>125899</v>
       </c>
       <c r="Y26" s="13">
-        <v>174237</v>
+        <v>129770</v>
       </c>
       <c r="Z26" s="13">
-        <v>125899</v>
+        <v>131144</v>
       </c>
       <c r="AA26" s="13">
-        <v>129770</v>
+        <v>120910</v>
       </c>
       <c r="AB26" s="13">
-        <v>131144</v>
+        <v>84455</v>
       </c>
       <c r="AC26" s="13">
-        <v>120910</v>
+        <v>84450</v>
       </c>
       <c r="AD26" s="13">
-        <v>84455</v>
+        <v>83707</v>
       </c>
       <c r="AE26" s="13">
-        <v>84450</v>
+        <v>123616</v>
       </c>
       <c r="AF26" s="13">
-        <v>83707</v>
+        <v>95970</v>
       </c>
       <c r="AG26" s="13">
-        <v>123616</v>
+        <v>131250</v>
       </c>
       <c r="AH26" s="13">
-        <v>95970</v>
+        <v>142101</v>
       </c>
       <c r="AI26" s="13">
-        <v>131250</v>
+        <v>85577</v>
       </c>
       <c r="AJ26" s="13">
-        <v>142101</v>
+        <v>66495</v>
       </c>
       <c r="AK26" s="13">
-        <v>85577</v>
+        <v>139567</v>
       </c>
       <c r="AL26" s="13">
-        <v>66495</v>
+        <v>137687</v>
       </c>
       <c r="AM26" s="13">
-        <v>139567</v>
+        <v>129551</v>
       </c>
       <c r="AN26" s="13">
-        <v>137687</v>
+        <v>125399</v>
       </c>
       <c r="AO26" s="13">
-        <v>129551</v>
+        <v>95539</v>
       </c>
       <c r="AP26" s="13">
-        <v>125399</v>
+        <v>85824</v>
       </c>
       <c r="AQ26" s="13">
-        <v>95539</v>
+        <v>124397</v>
       </c>
       <c r="AR26" s="13">
-        <v>85824</v>
+        <v>93901</v>
       </c>
       <c r="AS26" s="13">
-        <v>124397</v>
+        <v>112747</v>
       </c>
       <c r="AT26" s="13">
-        <v>93901</v>
+        <v>114670</v>
       </c>
       <c r="AU26" s="13">
-        <v>112747</v>
+        <v>129928</v>
       </c>
       <c r="AV26" s="13">
-        <v>114670</v>
+        <v>144306</v>
       </c>
       <c r="AW26" s="13">
-        <v>129928</v>
+        <v>153191</v>
       </c>
       <c r="AX26" s="13">
-        <v>144306</v>
+        <v>147638</v>
       </c>
       <c r="AY26" s="13">
-        <v>153191</v>
+        <v>158572</v>
       </c>
       <c r="AZ26" s="13">
-        <v>147638</v>
+        <v>145394</v>
       </c>
       <c r="BA26" s="13">
-        <v>158572</v>
+        <v>104861</v>
       </c>
       <c r="BB26" s="13">
-        <v>145394</v>
+        <v>108645</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>59</v>
       </c>
@@ -3389,11 +3389,11 @@
       <c r="Y27" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z27" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA27" s="11" t="s">
-        <v>57</v>
+      <c r="Z27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="11">
+        <v>0</v>
       </c>
       <c r="AB27" s="11">
         <v>0</v>
@@ -3425,11 +3425,11 @@
       <c r="AK27" s="11">
         <v>0</v>
       </c>
-      <c r="AL27" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM27" s="11">
-        <v>0</v>
+      <c r="AL27" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM27" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AN27" s="11" t="s">
         <v>57</v>
@@ -3477,7 +3477,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>60</v>
       </c>
@@ -3527,116 +3527,116 @@
       <c r="R28" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="S28" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="T28" s="13" t="s">
-        <v>57</v>
+      <c r="S28" s="13">
+        <v>7933</v>
+      </c>
+      <c r="T28" s="13">
+        <v>10465</v>
       </c>
       <c r="U28" s="13">
-        <v>7933</v>
+        <v>15406</v>
       </c>
       <c r="V28" s="13">
-        <v>10465</v>
+        <v>11842</v>
       </c>
       <c r="W28" s="13">
-        <v>15406</v>
+        <v>9800</v>
       </c>
       <c r="X28" s="13">
-        <v>11842</v>
+        <v>12098</v>
       </c>
       <c r="Y28" s="13">
-        <v>9800</v>
+        <v>12079</v>
       </c>
       <c r="Z28" s="13">
-        <v>12098</v>
+        <v>13042</v>
       </c>
       <c r="AA28" s="13">
-        <v>12079</v>
+        <v>13195</v>
       </c>
       <c r="AB28" s="13">
-        <v>13042</v>
+        <v>11960</v>
       </c>
       <c r="AC28" s="13">
-        <v>13195</v>
+        <v>3764</v>
       </c>
       <c r="AD28" s="13">
-        <v>11960</v>
+        <v>10082</v>
       </c>
       <c r="AE28" s="13">
-        <v>3764</v>
+        <v>11114</v>
       </c>
       <c r="AF28" s="13">
-        <v>10082</v>
+        <v>12138</v>
       </c>
       <c r="AG28" s="13">
-        <v>11114</v>
+        <v>12011</v>
       </c>
       <c r="AH28" s="13">
-        <v>12138</v>
+        <v>12122</v>
       </c>
       <c r="AI28" s="13">
-        <v>12011</v>
+        <v>9034</v>
       </c>
       <c r="AJ28" s="13">
-        <v>12122</v>
+        <v>5877</v>
       </c>
       <c r="AK28" s="13">
-        <v>9034</v>
+        <v>8857</v>
       </c>
       <c r="AL28" s="13">
-        <v>5877</v>
+        <v>17555</v>
       </c>
       <c r="AM28" s="13">
-        <v>8857</v>
+        <v>15775</v>
       </c>
       <c r="AN28" s="13">
-        <v>17555</v>
+        <v>9340</v>
       </c>
       <c r="AO28" s="13">
-        <v>15775</v>
+        <v>5074</v>
       </c>
       <c r="AP28" s="13">
-        <v>9340</v>
+        <v>6061</v>
       </c>
       <c r="AQ28" s="13">
-        <v>5074</v>
+        <v>8435</v>
       </c>
       <c r="AR28" s="13">
-        <v>6061</v>
+        <v>11889</v>
       </c>
       <c r="AS28" s="13">
-        <v>8435</v>
+        <v>12114</v>
       </c>
       <c r="AT28" s="13">
-        <v>11889</v>
+        <v>8086</v>
       </c>
       <c r="AU28" s="13">
-        <v>12114</v>
+        <v>7774</v>
       </c>
       <c r="AV28" s="13">
-        <v>8086</v>
-      </c>
-      <c r="AW28" s="13">
-        <v>7774</v>
+        <v>9173</v>
+      </c>
+      <c r="AW28" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AX28" s="13">
-        <v>9173</v>
-      </c>
-      <c r="AY28" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ28" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA28" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AY28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ28" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA28" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="BB28" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>61</v>
       </c>
@@ -3707,48 +3707,48 @@
       <c r="Y29" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA29" s="11" t="s">
-        <v>57</v>
+      <c r="Z29" s="11">
+        <v>24924</v>
+      </c>
+      <c r="AA29" s="11">
+        <v>18877</v>
       </c>
       <c r="AB29" s="11">
-        <v>24924</v>
+        <v>53638</v>
       </c>
       <c r="AC29" s="11">
-        <v>18877</v>
+        <v>32853</v>
       </c>
       <c r="AD29" s="11">
-        <v>53638</v>
+        <v>27396</v>
       </c>
       <c r="AE29" s="11">
-        <v>32853</v>
+        <v>35335</v>
       </c>
       <c r="AF29" s="11">
-        <v>27396</v>
+        <v>45928</v>
       </c>
       <c r="AG29" s="11">
-        <v>35335</v>
+        <v>21544</v>
       </c>
       <c r="AH29" s="11">
-        <v>45928</v>
+        <v>34453</v>
       </c>
       <c r="AI29" s="11">
-        <v>21544</v>
+        <v>21711</v>
       </c>
       <c r="AJ29" s="11">
-        <v>34453</v>
+        <v>23938</v>
       </c>
       <c r="AK29" s="11">
-        <v>21711</v>
-      </c>
-      <c r="AL29" s="11">
-        <v>23938</v>
-      </c>
-      <c r="AM29" s="11">
         <v>20628</v>
       </c>
+      <c r="AL29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM29" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AN29" s="11" t="s">
         <v>57</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
         <v>62</v>
       </c>
@@ -3852,7 +3852,7 @@
       <c r="BA30" s="15"/>
       <c r="BB30" s="15"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="s">
         <v>63</v>
       </c>
@@ -3921,11 +3921,11 @@
       <c r="Y31" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Z31" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA31" s="17" t="s">
-        <v>57</v>
+      <c r="Z31" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="17">
+        <v>0</v>
       </c>
       <c r="AB31" s="17">
         <v>0</v>
@@ -4009,7 +4009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
         <v>66</v>
       </c>
@@ -4066,7 +4066,7 @@
       <c r="BA32" s="15"/>
       <c r="BB32" s="15"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
         <v>67</v>
       </c>
@@ -4135,11 +4135,11 @@
       <c r="Y33" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Z33" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA33" s="17" t="s">
-        <v>57</v>
+      <c r="Z33" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="17">
+        <v>0</v>
       </c>
       <c r="AB33" s="17">
         <v>0</v>
@@ -4223,164 +4223,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="s">
         <v>64</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19">
-        <v>131143</v>
+        <v>128892</v>
       </c>
       <c r="F34" s="19">
-        <v>141989</v>
+        <v>141643</v>
       </c>
       <c r="G34" s="19">
-        <v>128892</v>
+        <v>186120</v>
       </c>
       <c r="H34" s="19">
-        <v>141643</v>
+        <v>143832</v>
       </c>
       <c r="I34" s="19">
-        <v>186120</v>
+        <v>193914</v>
       </c>
       <c r="J34" s="19">
-        <v>143832</v>
+        <v>189464</v>
       </c>
       <c r="K34" s="19">
-        <v>193914</v>
+        <v>194888</v>
       </c>
       <c r="L34" s="19">
-        <v>189464</v>
+        <v>162967</v>
       </c>
       <c r="M34" s="19">
-        <v>194888</v>
+        <v>158032</v>
       </c>
       <c r="N34" s="19">
-        <v>162967</v>
+        <v>157873</v>
       </c>
       <c r="O34" s="19">
-        <v>158032</v>
+        <v>121811</v>
       </c>
       <c r="P34" s="19">
-        <v>157873</v>
+        <v>140096</v>
       </c>
       <c r="Q34" s="19">
-        <v>121811</v>
+        <v>121070</v>
       </c>
       <c r="R34" s="19">
-        <v>140096</v>
+        <v>167440</v>
       </c>
       <c r="S34" s="19">
-        <v>121070</v>
+        <v>184119</v>
       </c>
       <c r="T34" s="19">
-        <v>167440</v>
+        <v>114935</v>
       </c>
       <c r="U34" s="19">
-        <v>184119</v>
+        <v>185812</v>
       </c>
       <c r="V34" s="19">
-        <v>114935</v>
+        <v>196619</v>
       </c>
       <c r="W34" s="19">
-        <v>185812</v>
+        <v>184037</v>
       </c>
       <c r="X34" s="19">
-        <v>196619</v>
+        <v>137997</v>
       </c>
       <c r="Y34" s="19">
-        <v>184037</v>
+        <v>141849</v>
       </c>
       <c r="Z34" s="19">
-        <v>137997</v>
+        <v>169110</v>
       </c>
       <c r="AA34" s="19">
-        <v>141849</v>
+        <v>152982</v>
       </c>
       <c r="AB34" s="19">
-        <v>169110</v>
+        <v>150053</v>
       </c>
       <c r="AC34" s="19">
-        <v>152982</v>
+        <v>121067</v>
       </c>
       <c r="AD34" s="19">
-        <v>150053</v>
+        <v>121185</v>
       </c>
       <c r="AE34" s="19">
-        <v>121067</v>
+        <v>170065</v>
       </c>
       <c r="AF34" s="19">
-        <v>121185</v>
+        <v>154036</v>
       </c>
       <c r="AG34" s="19">
-        <v>170065</v>
+        <v>164805</v>
       </c>
       <c r="AH34" s="19">
-        <v>154036</v>
+        <v>188676</v>
       </c>
       <c r="AI34" s="19">
-        <v>164805</v>
+        <v>116322</v>
       </c>
       <c r="AJ34" s="19">
-        <v>188676</v>
+        <v>96310</v>
       </c>
       <c r="AK34" s="19">
-        <v>116322</v>
+        <v>169052</v>
       </c>
       <c r="AL34" s="19">
-        <v>96310</v>
+        <v>155242</v>
       </c>
       <c r="AM34" s="19">
-        <v>169052</v>
+        <v>145326</v>
       </c>
       <c r="AN34" s="19">
-        <v>155242</v>
+        <v>134739</v>
       </c>
       <c r="AO34" s="19">
-        <v>145326</v>
+        <v>100613</v>
       </c>
       <c r="AP34" s="19">
-        <v>134739</v>
+        <v>91885</v>
       </c>
       <c r="AQ34" s="19">
-        <v>100613</v>
+        <v>132832</v>
       </c>
       <c r="AR34" s="19">
-        <v>91885</v>
+        <v>105790</v>
       </c>
       <c r="AS34" s="19">
-        <v>132832</v>
+        <v>124861</v>
       </c>
       <c r="AT34" s="19">
-        <v>105790</v>
+        <v>122756</v>
       </c>
       <c r="AU34" s="19">
-        <v>124861</v>
+        <v>137702</v>
       </c>
       <c r="AV34" s="19">
-        <v>122756</v>
+        <v>153479</v>
       </c>
       <c r="AW34" s="19">
-        <v>137702</v>
+        <v>153191</v>
       </c>
       <c r="AX34" s="19">
-        <v>153479</v>
+        <v>147638</v>
       </c>
       <c r="AY34" s="19">
-        <v>153191</v>
+        <v>158572</v>
       </c>
       <c r="AZ34" s="19">
-        <v>147638</v>
+        <v>145394</v>
       </c>
       <c r="BA34" s="19">
-        <v>158572</v>
+        <v>104861</v>
       </c>
       <c r="BB34" s="19">
-        <v>145394</v>
+        <v>108645</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -4435,7 +4435,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -4490,7 +4490,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -4545,7 +4545,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
         <v>68</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -4757,7 +4757,7 @@
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
         <v>68</v>
       </c>
@@ -4814,7 +4814,7 @@
       <c r="BA40" s="9"/>
       <c r="BB40" s="9"/>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>55</v>
       </c>
@@ -4823,37 +4823,37 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
-        <v>456</v>
+        <v>399</v>
       </c>
       <c r="F41" s="11">
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="G41" s="11">
-        <v>399</v>
+        <v>689</v>
       </c>
       <c r="H41" s="11">
-        <v>403</v>
+        <v>327</v>
       </c>
       <c r="I41" s="11">
-        <v>689</v>
+        <v>2627</v>
       </c>
       <c r="J41" s="11">
-        <v>327</v>
+        <v>575</v>
       </c>
       <c r="K41" s="11">
-        <v>2627</v>
+        <v>0</v>
       </c>
       <c r="L41" s="11">
-        <v>575</v>
+        <v>0</v>
       </c>
       <c r="M41" s="11">
         <v>0</v>
       </c>
-      <c r="N41" s="11">
-        <v>0</v>
-      </c>
-      <c r="O41" s="11">
-        <v>0</v>
+      <c r="N41" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O41" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="P41" s="11" t="s">
         <v>57</v>
@@ -4973,7 +4973,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>58</v>
       </c>
@@ -4982,157 +4982,157 @@
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13">
-        <v>153040</v>
+        <v>149028</v>
       </c>
       <c r="F42" s="13">
-        <v>169524</v>
+        <v>161617</v>
       </c>
       <c r="G42" s="13">
-        <v>149028</v>
+        <v>212214</v>
       </c>
       <c r="H42" s="13">
-        <v>161617</v>
+        <v>170668</v>
       </c>
       <c r="I42" s="13">
-        <v>212214</v>
+        <v>235501</v>
       </c>
       <c r="J42" s="13">
-        <v>170668</v>
+        <v>235482</v>
       </c>
       <c r="K42" s="13">
-        <v>235501</v>
+        <v>295086</v>
       </c>
       <c r="L42" s="13">
-        <v>235482</v>
+        <v>275887</v>
       </c>
       <c r="M42" s="13">
-        <v>295086</v>
+        <v>276303</v>
       </c>
       <c r="N42" s="13">
-        <v>275887</v>
+        <v>278664</v>
       </c>
       <c r="O42" s="13">
-        <v>276303</v>
+        <v>217656</v>
       </c>
       <c r="P42" s="13">
-        <v>278664</v>
+        <v>245725</v>
       </c>
       <c r="Q42" s="13">
-        <v>217656</v>
+        <v>210916</v>
       </c>
       <c r="R42" s="13">
-        <v>245725</v>
+        <v>289332</v>
       </c>
       <c r="S42" s="13">
-        <v>210916</v>
+        <v>306041</v>
       </c>
       <c r="T42" s="13">
-        <v>289332</v>
+        <v>180591</v>
       </c>
       <c r="U42" s="13">
-        <v>306041</v>
+        <v>300091</v>
       </c>
       <c r="V42" s="13">
-        <v>180591</v>
+        <v>335127</v>
       </c>
       <c r="W42" s="13">
-        <v>300091</v>
+        <v>357665</v>
       </c>
       <c r="X42" s="13">
-        <v>335127</v>
+        <v>284168</v>
       </c>
       <c r="Y42" s="13">
-        <v>357665</v>
+        <v>325104</v>
       </c>
       <c r="Z42" s="13">
-        <v>284168</v>
+        <v>342153</v>
       </c>
       <c r="AA42" s="13">
-        <v>325104</v>
+        <v>327434</v>
       </c>
       <c r="AB42" s="13">
-        <v>342153</v>
+        <v>217430</v>
       </c>
       <c r="AC42" s="13">
-        <v>327434</v>
+        <v>222052</v>
       </c>
       <c r="AD42" s="13">
-        <v>217430</v>
+        <v>221545</v>
       </c>
       <c r="AE42" s="13">
-        <v>222052</v>
+        <v>338741</v>
       </c>
       <c r="AF42" s="13">
-        <v>221545</v>
+        <v>269759</v>
       </c>
       <c r="AG42" s="13">
-        <v>338741</v>
+        <v>491223</v>
       </c>
       <c r="AH42" s="13">
-        <v>269759</v>
+        <v>546159</v>
       </c>
       <c r="AI42" s="13">
-        <v>491223</v>
+        <v>326604</v>
       </c>
       <c r="AJ42" s="13">
-        <v>546159</v>
+        <v>317905</v>
       </c>
       <c r="AK42" s="13">
-        <v>326604</v>
+        <v>724153</v>
       </c>
       <c r="AL42" s="13">
-        <v>317905</v>
+        <v>613946</v>
       </c>
       <c r="AM42" s="13">
-        <v>724153</v>
+        <v>563533</v>
       </c>
       <c r="AN42" s="13">
-        <v>613946</v>
+        <v>585341</v>
       </c>
       <c r="AO42" s="13">
-        <v>563533</v>
+        <v>434715</v>
       </c>
       <c r="AP42" s="13">
-        <v>585341</v>
+        <v>399523</v>
       </c>
       <c r="AQ42" s="13">
-        <v>434715</v>
+        <v>635446</v>
       </c>
       <c r="AR42" s="13">
-        <v>399523</v>
+        <v>494566</v>
       </c>
       <c r="AS42" s="13">
-        <v>635446</v>
+        <v>586217</v>
       </c>
       <c r="AT42" s="13">
-        <v>494566</v>
+        <v>612616</v>
       </c>
       <c r="AU42" s="13">
-        <v>586217</v>
+        <v>699832</v>
       </c>
       <c r="AV42" s="13">
-        <v>612616</v>
+        <v>758148</v>
       </c>
       <c r="AW42" s="13">
-        <v>699832</v>
+        <v>798773</v>
       </c>
       <c r="AX42" s="13">
-        <v>758148</v>
+        <v>761646</v>
       </c>
       <c r="AY42" s="13">
-        <v>798773</v>
+        <v>772615</v>
       </c>
       <c r="AZ42" s="13">
-        <v>761646</v>
+        <v>763214</v>
       </c>
       <c r="BA42" s="13">
-        <v>772615</v>
+        <v>569499</v>
       </c>
       <c r="BB42" s="13">
-        <v>763214</v>
+        <v>574962</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>59</v>
       </c>
@@ -5203,11 +5203,11 @@
       <c r="Y43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z43" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA43" s="11" t="s">
-        <v>57</v>
+      <c r="Z43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="11">
+        <v>0</v>
       </c>
       <c r="AB43" s="11">
         <v>0</v>
@@ -5239,11 +5239,11 @@
       <c r="AK43" s="11">
         <v>0</v>
       </c>
-      <c r="AL43" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM43" s="11">
-        <v>0</v>
+      <c r="AL43" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM43" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AN43" s="11" t="s">
         <v>57</v>
@@ -5291,7 +5291,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>60</v>
       </c>
@@ -5341,116 +5341,116 @@
       <c r="R44" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="S44" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="T44" s="13" t="s">
-        <v>57</v>
+      <c r="S44" s="13">
+        <v>8644</v>
+      </c>
+      <c r="T44" s="13">
+        <v>11092</v>
       </c>
       <c r="U44" s="13">
-        <v>8644</v>
+        <v>16507</v>
       </c>
       <c r="V44" s="13">
-        <v>11092</v>
+        <v>14401</v>
       </c>
       <c r="W44" s="13">
-        <v>16507</v>
+        <v>14194</v>
       </c>
       <c r="X44" s="13">
-        <v>14401</v>
+        <v>17486</v>
       </c>
       <c r="Y44" s="13">
-        <v>14194</v>
+        <v>19932</v>
       </c>
       <c r="Z44" s="13">
-        <v>17486</v>
+        <v>19303</v>
       </c>
       <c r="AA44" s="13">
-        <v>19932</v>
+        <v>19838</v>
       </c>
       <c r="AB44" s="13">
-        <v>19303</v>
+        <v>21275</v>
       </c>
       <c r="AC44" s="13">
-        <v>19838</v>
+        <v>6030</v>
       </c>
       <c r="AD44" s="13">
-        <v>21275</v>
+        <v>18180</v>
       </c>
       <c r="AE44" s="13">
-        <v>6030</v>
+        <v>20242</v>
       </c>
       <c r="AF44" s="13">
-        <v>18180</v>
+        <v>23916</v>
       </c>
       <c r="AG44" s="13">
-        <v>20242</v>
+        <v>23993</v>
       </c>
       <c r="AH44" s="13">
-        <v>23916</v>
+        <v>30757</v>
       </c>
       <c r="AI44" s="13">
-        <v>23993</v>
+        <v>21122</v>
       </c>
       <c r="AJ44" s="13">
-        <v>30757</v>
+        <v>13493</v>
       </c>
       <c r="AK44" s="13">
-        <v>21122</v>
+        <v>28991</v>
       </c>
       <c r="AL44" s="13">
-        <v>13493</v>
+        <v>52812</v>
       </c>
       <c r="AM44" s="13">
-        <v>28991</v>
+        <v>49411</v>
       </c>
       <c r="AN44" s="13">
-        <v>52812</v>
+        <v>27599</v>
       </c>
       <c r="AO44" s="13">
-        <v>49411</v>
+        <v>14437</v>
       </c>
       <c r="AP44" s="13">
-        <v>27599</v>
+        <v>14261</v>
       </c>
       <c r="AQ44" s="13">
-        <v>14437</v>
+        <v>33617</v>
       </c>
       <c r="AR44" s="13">
-        <v>14261</v>
+        <v>40070</v>
       </c>
       <c r="AS44" s="13">
-        <v>33617</v>
+        <v>49142</v>
       </c>
       <c r="AT44" s="13">
-        <v>40070</v>
+        <v>31194</v>
       </c>
       <c r="AU44" s="13">
-        <v>49142</v>
+        <v>28831</v>
       </c>
       <c r="AV44" s="13">
-        <v>31194</v>
-      </c>
-      <c r="AW44" s="13">
-        <v>28831</v>
+        <v>37063</v>
+      </c>
+      <c r="AW44" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AX44" s="13">
-        <v>37063</v>
-      </c>
-      <c r="AY44" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ44" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA44" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AY44" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ44" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA44" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="BB44" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>61</v>
       </c>
@@ -5521,48 +5521,48 @@
       <c r="Y45" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z45" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA45" s="11" t="s">
-        <v>57</v>
+      <c r="Z45" s="11">
+        <v>78788</v>
+      </c>
+      <c r="AA45" s="11">
+        <v>56503</v>
       </c>
       <c r="AB45" s="11">
-        <v>78788</v>
+        <v>136759</v>
       </c>
       <c r="AC45" s="11">
-        <v>56503</v>
+        <v>91590</v>
       </c>
       <c r="AD45" s="11">
-        <v>136759</v>
+        <v>84827</v>
       </c>
       <c r="AE45" s="11">
-        <v>91590</v>
+        <v>147508</v>
       </c>
       <c r="AF45" s="11">
-        <v>84827</v>
+        <v>193732</v>
       </c>
       <c r="AG45" s="11">
-        <v>147508</v>
+        <v>98918</v>
       </c>
       <c r="AH45" s="11">
-        <v>193732</v>
+        <v>160643</v>
       </c>
       <c r="AI45" s="11">
-        <v>98918</v>
+        <v>101696</v>
       </c>
       <c r="AJ45" s="11">
-        <v>160643</v>
+        <v>123442</v>
       </c>
       <c r="AK45" s="11">
-        <v>101696</v>
-      </c>
-      <c r="AL45" s="11">
-        <v>123442</v>
-      </c>
-      <c r="AM45" s="11">
         <v>138250</v>
       </c>
+      <c r="AL45" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM45" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AN45" s="11" t="s">
         <v>57</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="14" t="s">
         <v>70</v>
       </c>
@@ -5666,7 +5666,7 @@
       <c r="BA46" s="15"/>
       <c r="BB46" s="15"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
         <v>63</v>
       </c>
@@ -5737,11 +5737,11 @@
       <c r="Y47" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Z47" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA47" s="17" t="s">
-        <v>57</v>
+      <c r="Z47" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="17">
+        <v>0</v>
       </c>
       <c r="AB47" s="17">
         <v>0</v>
@@ -5825,7 +5825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
         <v>71</v>
       </c>
@@ -5882,7 +5882,7 @@
       <c r="BA48" s="15"/>
       <c r="BB48" s="15"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="16" t="s">
         <v>67</v>
       </c>
@@ -5953,11 +5953,11 @@
       <c r="Y49" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Z49" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA49" s="17" t="s">
-        <v>57</v>
+      <c r="Z49" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="17">
+        <v>0</v>
       </c>
       <c r="AB49" s="17">
         <v>0</v>
@@ -6041,7 +6041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
         <v>72</v>
       </c>
@@ -6098,7 +6098,7 @@
       <c r="BA50" s="9"/>
       <c r="BB50" s="9"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>73</v>
       </c>
@@ -6169,11 +6169,11 @@
       <c r="Y51" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z51" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA51" s="11" t="s">
-        <v>57</v>
+      <c r="Z51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="11">
+        <v>0</v>
       </c>
       <c r="AB51" s="11">
         <v>0</v>
@@ -6257,164 +6257,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="s">
         <v>64</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
       <c r="E52" s="19">
-        <v>153496</v>
+        <v>149427</v>
       </c>
       <c r="F52" s="19">
-        <v>169524</v>
+        <v>162020</v>
       </c>
       <c r="G52" s="19">
-        <v>149427</v>
+        <v>212903</v>
       </c>
       <c r="H52" s="19">
-        <v>162020</v>
+        <v>170995</v>
       </c>
       <c r="I52" s="19">
-        <v>212903</v>
+        <v>238128</v>
       </c>
       <c r="J52" s="19">
-        <v>170995</v>
+        <v>236057</v>
       </c>
       <c r="K52" s="19">
-        <v>238128</v>
+        <v>295086</v>
       </c>
       <c r="L52" s="19">
-        <v>236057</v>
+        <v>275887</v>
       </c>
       <c r="M52" s="19">
-        <v>295086</v>
+        <v>276303</v>
       </c>
       <c r="N52" s="19">
-        <v>275887</v>
+        <v>278664</v>
       </c>
       <c r="O52" s="19">
-        <v>276303</v>
+        <v>217656</v>
       </c>
       <c r="P52" s="19">
-        <v>278664</v>
+        <v>245725</v>
       </c>
       <c r="Q52" s="19">
-        <v>217656</v>
+        <v>210916</v>
       </c>
       <c r="R52" s="19">
-        <v>245725</v>
+        <v>289332</v>
       </c>
       <c r="S52" s="19">
-        <v>210916</v>
+        <v>314685</v>
       </c>
       <c r="T52" s="19">
-        <v>289332</v>
+        <v>191683</v>
       </c>
       <c r="U52" s="19">
-        <v>314685</v>
+        <v>316598</v>
       </c>
       <c r="V52" s="19">
-        <v>191683</v>
+        <v>349528</v>
       </c>
       <c r="W52" s="19">
-        <v>316598</v>
+        <v>371859</v>
       </c>
       <c r="X52" s="19">
-        <v>349528</v>
+        <v>301654</v>
       </c>
       <c r="Y52" s="19">
-        <v>371859</v>
+        <v>345036</v>
       </c>
       <c r="Z52" s="19">
-        <v>301654</v>
+        <v>440244</v>
       </c>
       <c r="AA52" s="19">
-        <v>345036</v>
+        <v>403775</v>
       </c>
       <c r="AB52" s="19">
-        <v>440244</v>
+        <v>375464</v>
       </c>
       <c r="AC52" s="19">
-        <v>403775</v>
+        <v>319672</v>
       </c>
       <c r="AD52" s="19">
-        <v>375464</v>
+        <v>324552</v>
       </c>
       <c r="AE52" s="19">
-        <v>319672</v>
+        <v>506491</v>
       </c>
       <c r="AF52" s="19">
-        <v>324552</v>
+        <v>487407</v>
       </c>
       <c r="AG52" s="19">
-        <v>506491</v>
+        <v>614134</v>
       </c>
       <c r="AH52" s="19">
-        <v>487407</v>
+        <v>737559</v>
       </c>
       <c r="AI52" s="19">
-        <v>614134</v>
+        <v>449422</v>
       </c>
       <c r="AJ52" s="19">
-        <v>737559</v>
+        <v>454840</v>
       </c>
       <c r="AK52" s="19">
-        <v>449422</v>
+        <v>891394</v>
       </c>
       <c r="AL52" s="19">
-        <v>454840</v>
+        <v>666758</v>
       </c>
       <c r="AM52" s="19">
-        <v>891394</v>
+        <v>612944</v>
       </c>
       <c r="AN52" s="19">
-        <v>666758</v>
+        <v>612940</v>
       </c>
       <c r="AO52" s="19">
-        <v>612944</v>
+        <v>449152</v>
       </c>
       <c r="AP52" s="19">
-        <v>612940</v>
+        <v>413784</v>
       </c>
       <c r="AQ52" s="19">
-        <v>449152</v>
+        <v>669063</v>
       </c>
       <c r="AR52" s="19">
-        <v>413784</v>
+        <v>534636</v>
       </c>
       <c r="AS52" s="19">
-        <v>669063</v>
+        <v>635359</v>
       </c>
       <c r="AT52" s="19">
-        <v>534636</v>
+        <v>643810</v>
       </c>
       <c r="AU52" s="19">
-        <v>635359</v>
+        <v>728663</v>
       </c>
       <c r="AV52" s="19">
-        <v>643810</v>
+        <v>795211</v>
       </c>
       <c r="AW52" s="19">
-        <v>728663</v>
+        <v>798773</v>
       </c>
       <c r="AX52" s="19">
-        <v>795211</v>
+        <v>761646</v>
       </c>
       <c r="AY52" s="19">
-        <v>798773</v>
+        <v>772615</v>
       </c>
       <c r="AZ52" s="19">
-        <v>761646</v>
+        <v>763214</v>
       </c>
       <c r="BA52" s="19">
-        <v>772615</v>
+        <v>569499</v>
       </c>
       <c r="BB52" s="19">
-        <v>763214</v>
+        <v>574962</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -6469,7 +6469,7 @@
       <c r="BA53" s="1"/>
       <c r="BB53" s="1"/>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -6524,7 +6524,7 @@
       <c r="BA54" s="1"/>
       <c r="BB54" s="1"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -6579,7 +6579,7 @@
       <c r="BA55" s="1"/>
       <c r="BB55" s="1"/>
     </row>
-    <row r="56" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
         <v>74</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -6791,7 +6791,7 @@
       <c r="BA57" s="1"/>
       <c r="BB57" s="1"/>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
         <v>75</v>
       </c>
@@ -6848,7 +6848,7 @@
       <c r="BA58" s="9"/>
       <c r="BB58" s="9"/>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>55</v>
       </c>
@@ -6857,37 +6857,37 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
-        <v>1090909</v>
+        <v>734807</v>
       </c>
       <c r="F59" s="11">
-        <v>0</v>
+        <v>735401</v>
       </c>
       <c r="G59" s="11">
-        <v>734807</v>
+        <v>732979</v>
       </c>
       <c r="H59" s="11">
-        <v>735401</v>
+        <v>734831</v>
       </c>
       <c r="I59" s="11">
-        <v>732979</v>
+        <v>1009220</v>
       </c>
       <c r="J59" s="11">
-        <v>734831</v>
+        <v>1008772</v>
       </c>
       <c r="K59" s="11">
-        <v>1009220</v>
+        <v>0</v>
       </c>
       <c r="L59" s="11">
-        <v>1008772</v>
+        <v>0</v>
       </c>
       <c r="M59" s="11">
         <v>0</v>
       </c>
-      <c r="N59" s="11">
-        <v>0</v>
-      </c>
-      <c r="O59" s="11">
-        <v>0</v>
+      <c r="N59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O59" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="P59" s="11" t="s">
         <v>57</v>
@@ -7007,7 +7007,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>58</v>
       </c>
@@ -7016,157 +7016,157 @@
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13">
-        <v>1170702</v>
+        <v>1161115</v>
       </c>
       <c r="F60" s="13">
-        <v>1193923</v>
+        <v>1145448</v>
       </c>
       <c r="G60" s="13">
-        <v>1161115</v>
+        <v>1145988</v>
       </c>
       <c r="H60" s="13">
-        <v>1145448</v>
+        <v>1190261</v>
       </c>
       <c r="I60" s="13">
-        <v>1145988</v>
+        <v>1230985</v>
       </c>
       <c r="J60" s="13">
-        <v>1190261</v>
+        <v>1246636</v>
       </c>
       <c r="K60" s="13">
-        <v>1230985</v>
+        <v>1514131</v>
       </c>
       <c r="L60" s="13">
-        <v>1246636</v>
+        <v>1692901</v>
       </c>
       <c r="M60" s="13">
-        <v>1514131</v>
+        <v>1748399</v>
       </c>
       <c r="N60" s="13">
-        <v>1692901</v>
+        <v>1765115</v>
       </c>
       <c r="O60" s="13">
-        <v>1748399</v>
+        <v>1786834</v>
       </c>
       <c r="P60" s="13">
-        <v>1765115</v>
+        <v>1753976</v>
       </c>
       <c r="Q60" s="13">
-        <v>1786834</v>
+        <v>1742100</v>
       </c>
       <c r="R60" s="13">
-        <v>1753976</v>
+        <v>1727974</v>
       </c>
       <c r="S60" s="13">
-        <v>1742100</v>
+        <v>1737034</v>
       </c>
       <c r="T60" s="13">
-        <v>1727974</v>
+        <v>1728640</v>
       </c>
       <c r="U60" s="13">
-        <v>1737034</v>
+        <v>1761035</v>
       </c>
       <c r="V60" s="13">
-        <v>1728640</v>
+        <v>1813684</v>
       </c>
       <c r="W60" s="13">
-        <v>1761035</v>
+        <v>2052750</v>
       </c>
       <c r="X60" s="13">
-        <v>1813684</v>
+        <v>2257111</v>
       </c>
       <c r="Y60" s="13">
-        <v>2052750</v>
+        <v>2505232</v>
       </c>
       <c r="Z60" s="13">
-        <v>2257111</v>
+        <v>2608987</v>
       </c>
       <c r="AA60" s="13">
-        <v>2505232</v>
+        <v>2708080</v>
       </c>
       <c r="AB60" s="13">
-        <v>2608987</v>
+        <v>2574507</v>
       </c>
       <c r="AC60" s="13">
-        <v>2708080</v>
+        <v>2629390</v>
       </c>
       <c r="AD60" s="13">
-        <v>2574507</v>
+        <v>2646672</v>
       </c>
       <c r="AE60" s="13">
-        <v>2629390</v>
+        <v>2740268</v>
       </c>
       <c r="AF60" s="13">
-        <v>2646672</v>
+        <v>2810868</v>
       </c>
       <c r="AG60" s="13">
-        <v>2740268</v>
+        <v>3742651</v>
       </c>
       <c r="AH60" s="13">
-        <v>2810868</v>
+        <v>3843456</v>
       </c>
       <c r="AI60" s="13">
-        <v>3742651</v>
+        <v>3816493</v>
       </c>
       <c r="AJ60" s="13">
-        <v>3843456</v>
+        <v>4780886</v>
       </c>
       <c r="AK60" s="13">
-        <v>3816493</v>
+        <v>5188569</v>
       </c>
       <c r="AL60" s="13">
-        <v>4780886</v>
+        <v>4458998</v>
       </c>
       <c r="AM60" s="13">
-        <v>5188569</v>
+        <v>4349893</v>
       </c>
       <c r="AN60" s="13">
-        <v>4458998</v>
+        <v>4667828</v>
       </c>
       <c r="AO60" s="13">
-        <v>4349893</v>
+        <v>4550131</v>
       </c>
       <c r="AP60" s="13">
-        <v>4667828</v>
+        <v>4655143</v>
       </c>
       <c r="AQ60" s="13">
-        <v>4550131</v>
+        <v>5108210</v>
       </c>
       <c r="AR60" s="13">
-        <v>4655143</v>
+        <v>5266887</v>
       </c>
       <c r="AS60" s="13">
-        <v>5108210</v>
+        <v>5199402</v>
       </c>
       <c r="AT60" s="13">
-        <v>5266887</v>
+        <v>5342426</v>
       </c>
       <c r="AU60" s="13">
-        <v>5199402</v>
+        <v>5386306</v>
       </c>
       <c r="AV60" s="13">
-        <v>5342426</v>
+        <v>5253752</v>
       </c>
       <c r="AW60" s="13">
-        <v>5386306</v>
+        <v>5214229</v>
       </c>
       <c r="AX60" s="13">
-        <v>5253752</v>
+        <v>5158875</v>
       </c>
       <c r="AY60" s="13">
-        <v>5214229</v>
+        <v>4872329</v>
       </c>
       <c r="AZ60" s="13">
-        <v>5158875</v>
+        <v>5249281</v>
       </c>
       <c r="BA60" s="13">
-        <v>4872329</v>
+        <v>5430990</v>
       </c>
       <c r="BB60" s="13">
-        <v>5249281</v>
+        <v>5292117</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>60</v>
       </c>
@@ -7216,102 +7216,102 @@
       <c r="R61" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="S61" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="T61" s="11" t="s">
-        <v>57</v>
+      <c r="S61" s="11">
+        <v>1089626</v>
+      </c>
+      <c r="T61" s="11">
+        <v>1059914</v>
       </c>
       <c r="U61" s="11">
-        <v>1089626</v>
+        <v>1071466</v>
       </c>
       <c r="V61" s="11">
-        <v>1059914</v>
+        <v>1216095</v>
       </c>
       <c r="W61" s="11">
-        <v>1071466</v>
+        <v>1448367</v>
       </c>
       <c r="X61" s="11">
-        <v>1216095</v>
+        <v>1445363</v>
       </c>
       <c r="Y61" s="11">
-        <v>1448367</v>
+        <v>1650137</v>
       </c>
       <c r="Z61" s="11">
-        <v>1445363</v>
+        <v>1480064</v>
       </c>
       <c r="AA61" s="11">
-        <v>1650137</v>
+        <v>1503448</v>
       </c>
       <c r="AB61" s="11">
-        <v>1480064</v>
+        <v>1778846</v>
       </c>
       <c r="AC61" s="11">
-        <v>1503448</v>
+        <v>1602019</v>
       </c>
       <c r="AD61" s="11">
-        <v>1778846</v>
+        <v>1803214</v>
       </c>
       <c r="AE61" s="11">
-        <v>1602019</v>
+        <v>1821306</v>
       </c>
       <c r="AF61" s="11">
-        <v>1803214</v>
+        <v>1970341</v>
       </c>
       <c r="AG61" s="11">
-        <v>1821306</v>
+        <v>1997586</v>
       </c>
       <c r="AH61" s="11">
-        <v>1970341</v>
+        <v>2537288</v>
       </c>
       <c r="AI61" s="11">
-        <v>1997586</v>
+        <v>2338056</v>
       </c>
       <c r="AJ61" s="11">
-        <v>2537288</v>
+        <v>2295899</v>
       </c>
       <c r="AK61" s="11">
-        <v>2338056</v>
+        <v>3273230</v>
       </c>
       <c r="AL61" s="11">
-        <v>2295899</v>
+        <v>3008374</v>
       </c>
       <c r="AM61" s="11">
-        <v>3273230</v>
+        <v>3132235</v>
       </c>
       <c r="AN61" s="11">
-        <v>3008374</v>
+        <v>2954925</v>
       </c>
       <c r="AO61" s="11">
-        <v>3132235</v>
+        <v>2845290</v>
       </c>
       <c r="AP61" s="11">
-        <v>2954925</v>
+        <v>2352912</v>
       </c>
       <c r="AQ61" s="11">
-        <v>2845290</v>
+        <v>3985418</v>
       </c>
       <c r="AR61" s="11">
-        <v>2352912</v>
+        <v>3370342</v>
       </c>
       <c r="AS61" s="11">
-        <v>3985418</v>
+        <v>4056629</v>
       </c>
       <c r="AT61" s="11">
-        <v>3370342</v>
+        <v>3857779</v>
       </c>
       <c r="AU61" s="11">
-        <v>4056629</v>
+        <v>3708644</v>
       </c>
       <c r="AV61" s="11">
-        <v>3857779</v>
-      </c>
-      <c r="AW61" s="11">
-        <v>3708644</v>
-      </c>
-      <c r="AX61" s="11">
         <v>4040445</v>
       </c>
+      <c r="AW61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX61" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AY61" s="11" t="s">
         <v>57</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>61</v>
       </c>
@@ -7396,47 +7396,47 @@
       <c r="Y62" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Z62" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA62" s="13" t="s">
-        <v>57</v>
+      <c r="Z62" s="13">
+        <v>3161130</v>
+      </c>
+      <c r="AA62" s="13">
+        <v>2993219</v>
       </c>
       <c r="AB62" s="13">
-        <v>3161130</v>
+        <v>2549666</v>
       </c>
       <c r="AC62" s="13">
-        <v>2993219</v>
+        <v>2787873</v>
       </c>
       <c r="AD62" s="13">
-        <v>2549666</v>
+        <v>3096328</v>
       </c>
       <c r="AE62" s="13">
-        <v>2787873</v>
+        <v>4174558</v>
       </c>
       <c r="AF62" s="13">
-        <v>3096328</v>
+        <v>4218168</v>
       </c>
       <c r="AG62" s="13">
-        <v>4174558</v>
+        <v>4591441</v>
       </c>
       <c r="AH62" s="13">
-        <v>4218168</v>
+        <v>4662671</v>
       </c>
       <c r="AI62" s="13">
-        <v>4591441</v>
+        <v>4684077</v>
       </c>
       <c r="AJ62" s="13">
-        <v>4662671</v>
+        <v>5156738</v>
       </c>
       <c r="AK62" s="13">
-        <v>4684077</v>
-      </c>
-      <c r="AL62" s="13">
-        <v>5156738</v>
-      </c>
-      <c r="AM62" s="13">
         <v>6702055</v>
+      </c>
+      <c r="AL62" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM62" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AN62" s="13" t="s">
         <v>57</v>

--- a/database/industries/siman/seshargh/product/monthly.xlsx
+++ b/database/industries/siman/seshargh/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="77">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3236,8 +3236,8 @@
       <c r="K11" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="L11" s="12" t="n">
-        <v>0</v>
+      <c r="L11" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="M11" s="13" t="s">
         <v>57</v>
@@ -3375,154 +3375,154 @@
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15" t="n">
-        <v>141638</v>
+        <v>189735</v>
       </c>
       <c r="F12" s="15" t="n">
-        <v>189735</v>
+        <v>135459</v>
       </c>
       <c r="G12" s="15" t="n">
-        <v>135459</v>
+        <v>197829</v>
       </c>
       <c r="H12" s="15" t="n">
-        <v>197829</v>
+        <v>189453</v>
       </c>
       <c r="I12" s="15" t="n">
-        <v>189453</v>
+        <v>188436</v>
       </c>
       <c r="J12" s="15" t="n">
-        <v>188436</v>
+        <v>159569</v>
       </c>
       <c r="K12" s="15" t="n">
-        <v>159569</v>
+        <v>171209</v>
       </c>
       <c r="L12" s="15" t="n">
-        <v>171209</v>
+        <v>159740</v>
       </c>
       <c r="M12" s="15" t="n">
-        <v>159740</v>
+        <v>138860</v>
       </c>
       <c r="N12" s="15" t="n">
-        <v>138860</v>
+        <v>149158</v>
       </c>
       <c r="O12" s="15" t="n">
-        <v>149158</v>
+        <v>128982</v>
       </c>
       <c r="P12" s="15" t="n">
-        <v>128982</v>
+        <v>161322</v>
       </c>
       <c r="Q12" s="15" t="n">
-        <v>161322</v>
+        <v>159894</v>
       </c>
       <c r="R12" s="15" t="n">
-        <v>159894</v>
+        <v>122099</v>
       </c>
       <c r="S12" s="15" t="n">
-        <v>122099</v>
+        <v>172590</v>
       </c>
       <c r="T12" s="15" t="n">
-        <v>172590</v>
+        <v>186855</v>
       </c>
       <c r="U12" s="15" t="n">
-        <v>186855</v>
+        <v>167502</v>
       </c>
       <c r="V12" s="15" t="n">
-        <v>167502</v>
+        <v>142092</v>
       </c>
       <c r="W12" s="15" t="n">
-        <v>142092</v>
+        <v>110073</v>
       </c>
       <c r="X12" s="15" t="n">
-        <v>110073</v>
+        <v>165203</v>
       </c>
       <c r="Y12" s="15" t="n">
-        <v>165203</v>
+        <v>148460</v>
       </c>
       <c r="Z12" s="15" t="n">
-        <v>148460</v>
+        <v>127240</v>
       </c>
       <c r="AA12" s="15" t="n">
-        <v>127240</v>
+        <v>131094</v>
       </c>
       <c r="AB12" s="15" t="n">
-        <v>131094</v>
+        <v>102957</v>
       </c>
       <c r="AC12" s="15" t="n">
-        <v>102957</v>
+        <v>170779</v>
       </c>
       <c r="AD12" s="15" t="n">
-        <v>170779</v>
+        <v>128789</v>
       </c>
       <c r="AE12" s="15" t="n">
-        <v>128789</v>
+        <v>156144</v>
       </c>
       <c r="AF12" s="15" t="n">
-        <v>156144</v>
+        <v>175539</v>
       </c>
       <c r="AG12" s="15" t="n">
-        <v>175539</v>
+        <v>120030</v>
       </c>
       <c r="AH12" s="15" t="n">
-        <v>120030</v>
+        <v>84260</v>
       </c>
       <c r="AI12" s="15" t="n">
-        <v>84260</v>
+        <v>162740</v>
       </c>
       <c r="AJ12" s="15" t="n">
-        <v>162740</v>
+        <v>149549</v>
       </c>
       <c r="AK12" s="15" t="n">
-        <v>149549</v>
+        <v>141959</v>
       </c>
       <c r="AL12" s="15" t="n">
-        <v>141959</v>
+        <v>119514</v>
       </c>
       <c r="AM12" s="15" t="n">
-        <v>119514</v>
+        <v>97342</v>
       </c>
       <c r="AN12" s="15" t="n">
-        <v>97342</v>
+        <v>86630</v>
       </c>
       <c r="AO12" s="15" t="n">
-        <v>86630</v>
+        <v>115248</v>
       </c>
       <c r="AP12" s="15" t="n">
-        <v>115248</v>
+        <v>87850</v>
       </c>
       <c r="AQ12" s="15" t="n">
-        <v>87850</v>
+        <v>110088</v>
       </c>
       <c r="AR12" s="15" t="n">
-        <v>110088</v>
+        <v>110163</v>
       </c>
       <c r="AS12" s="15" t="n">
-        <v>110163</v>
+        <v>139888</v>
       </c>
       <c r="AT12" s="15" t="n">
-        <v>139888</v>
+        <v>139500</v>
       </c>
       <c r="AU12" s="15" t="n">
-        <v>139500</v>
+        <v>163852</v>
       </c>
       <c r="AV12" s="15" t="n">
-        <v>163852</v>
+        <v>150786</v>
       </c>
       <c r="AW12" s="15" t="n">
-        <v>150786</v>
+        <v>174698</v>
       </c>
       <c r="AX12" s="15" t="n">
-        <v>174698</v>
+        <v>143543</v>
       </c>
       <c r="AY12" s="15" t="n">
-        <v>143543</v>
+        <v>103887</v>
       </c>
       <c r="AZ12" s="15" t="n">
-        <v>103887</v>
+        <v>114554</v>
       </c>
       <c r="BA12" s="15" t="n">
-        <v>114554</v>
+        <v>161290</v>
       </c>
       <c r="BB12" s="15" t="n">
-        <v>161290</v>
+        <v>122283</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3590,8 +3590,8 @@
       <c r="W13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="X13" s="13" t="s">
-        <v>57</v>
+      <c r="X13" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="Y13" s="13" t="n">
         <v>0</v>
@@ -3626,8 +3626,8 @@
       <c r="AI13" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ13" s="13" t="n">
-        <v>0</v>
+      <c r="AJ13" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AK13" s="13" t="s">
         <v>57</v>
@@ -3728,107 +3728,107 @@
       <c r="P14" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="Q14" s="16" t="s">
-        <v>57</v>
+      <c r="Q14" s="16" t="n">
+        <v>11612</v>
       </c>
       <c r="R14" s="16" t="n">
-        <v>11612</v>
+        <v>12492</v>
       </c>
       <c r="S14" s="16" t="n">
-        <v>12492</v>
+        <v>12790</v>
       </c>
       <c r="T14" s="16" t="n">
-        <v>12790</v>
+        <v>11675</v>
       </c>
       <c r="U14" s="16" t="n">
-        <v>11675</v>
+        <v>10855</v>
       </c>
       <c r="V14" s="16" t="n">
-        <v>10855</v>
+        <v>12667</v>
       </c>
       <c r="W14" s="16" t="n">
-        <v>12667</v>
+        <v>12927</v>
       </c>
       <c r="X14" s="16" t="n">
-        <v>12927</v>
+        <v>12944</v>
       </c>
       <c r="Y14" s="16" t="n">
-        <v>12944</v>
+        <v>12497</v>
       </c>
       <c r="Z14" s="16" t="n">
-        <v>12497</v>
+        <v>12192</v>
       </c>
       <c r="AA14" s="16" t="n">
-        <v>12192</v>
+        <v>2433</v>
       </c>
       <c r="AB14" s="16" t="n">
-        <v>2433</v>
+        <v>9578</v>
       </c>
       <c r="AC14" s="16" t="n">
-        <v>9578</v>
+        <v>10765</v>
       </c>
       <c r="AD14" s="16" t="n">
-        <v>10765</v>
+        <v>12106</v>
       </c>
       <c r="AE14" s="16" t="n">
-        <v>12106</v>
+        <v>13057</v>
       </c>
       <c r="AF14" s="16" t="n">
-        <v>13057</v>
+        <v>11399</v>
       </c>
       <c r="AG14" s="16" t="n">
-        <v>11399</v>
+        <v>11191</v>
       </c>
       <c r="AH14" s="16" t="n">
-        <v>11191</v>
+        <v>10594</v>
       </c>
       <c r="AI14" s="16" t="n">
-        <v>10594</v>
+        <v>11318</v>
       </c>
       <c r="AJ14" s="16" t="n">
-        <v>11318</v>
+        <v>11101</v>
       </c>
       <c r="AK14" s="16" t="n">
-        <v>11101</v>
+        <v>12308</v>
       </c>
       <c r="AL14" s="16" t="n">
-        <v>12308</v>
+        <v>11677</v>
       </c>
       <c r="AM14" s="16" t="n">
-        <v>11677</v>
+        <v>7107</v>
       </c>
       <c r="AN14" s="16" t="n">
-        <v>7107</v>
+        <v>4267</v>
       </c>
       <c r="AO14" s="16" t="n">
-        <v>4267</v>
+        <v>4700</v>
       </c>
       <c r="AP14" s="16" t="n">
-        <v>4700</v>
+        <v>11870</v>
       </c>
       <c r="AQ14" s="16" t="n">
-        <v>11870</v>
+        <v>11533</v>
       </c>
       <c r="AR14" s="16" t="n">
-        <v>11533</v>
+        <v>11027</v>
       </c>
       <c r="AS14" s="16" t="n">
-        <v>11027</v>
+        <v>7322</v>
       </c>
       <c r="AT14" s="16" t="n">
-        <v>7322</v>
-      </c>
-      <c r="AU14" s="16" t="n">
         <v>7191</v>
       </c>
-      <c r="AV14" s="16" t="s">
-        <v>57</v>
+      <c r="AU14" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV14" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AW14" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AX14" s="16" t="n">
-        <v>0</v>
+      <c r="AX14" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AY14" s="16" t="s">
         <v>57</v>
@@ -3908,8 +3908,8 @@
       <c r="W15" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="X15" s="13" t="s">
-        <v>57</v>
+      <c r="X15" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="Y15" s="13" t="n">
         <v>0</v>
@@ -3944,8 +3944,8 @@
       <c r="AI15" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ15" s="13" t="n">
-        <v>0</v>
+      <c r="AJ15" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AK15" s="13" t="s">
         <v>57</v>
@@ -4122,8 +4122,8 @@
       <c r="W17" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="X17" s="20" t="s">
-        <v>57</v>
+      <c r="X17" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="Y17" s="20" t="n">
         <v>0</v>
@@ -4223,154 +4223,154 @@
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22" t="n">
-        <v>141638</v>
+        <v>189735</v>
       </c>
       <c r="F18" s="22" t="n">
-        <v>189735</v>
+        <v>135459</v>
       </c>
       <c r="G18" s="22" t="n">
-        <v>135459</v>
+        <v>197829</v>
       </c>
       <c r="H18" s="22" t="n">
-        <v>197829</v>
+        <v>189453</v>
       </c>
       <c r="I18" s="22" t="n">
-        <v>189453</v>
+        <v>188436</v>
       </c>
       <c r="J18" s="22" t="n">
-        <v>188436</v>
+        <v>159569</v>
       </c>
       <c r="K18" s="22" t="n">
-        <v>159569</v>
+        <v>171209</v>
       </c>
       <c r="L18" s="22" t="n">
-        <v>171209</v>
+        <v>159740</v>
       </c>
       <c r="M18" s="22" t="n">
-        <v>159740</v>
+        <v>138860</v>
       </c>
       <c r="N18" s="22" t="n">
-        <v>138860</v>
+        <v>149158</v>
       </c>
       <c r="O18" s="22" t="n">
-        <v>149158</v>
+        <v>128982</v>
       </c>
       <c r="P18" s="22" t="n">
-        <v>128982</v>
+        <v>161322</v>
       </c>
       <c r="Q18" s="22" t="n">
-        <v>161322</v>
+        <v>171506</v>
       </c>
       <c r="R18" s="22" t="n">
-        <v>171506</v>
+        <v>134591</v>
       </c>
       <c r="S18" s="22" t="n">
-        <v>134591</v>
+        <v>185380</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>185380</v>
+        <v>198530</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>198530</v>
+        <v>178357</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>178357</v>
+        <v>154759</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>154759</v>
+        <v>123000</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>123000</v>
+        <v>178147</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>178147</v>
+        <v>160957</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>160957</v>
+        <v>139432</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>139432</v>
+        <v>133527</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>133527</v>
+        <v>112535</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>112535</v>
+        <v>181544</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>181544</v>
+        <v>140895</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>140895</v>
+        <v>169201</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>169201</v>
+        <v>186938</v>
       </c>
       <c r="AG18" s="22" t="n">
-        <v>186938</v>
+        <v>131221</v>
       </c>
       <c r="AH18" s="22" t="n">
-        <v>131221</v>
+        <v>94854</v>
       </c>
       <c r="AI18" s="22" t="n">
-        <v>94854</v>
+        <v>174058</v>
       </c>
       <c r="AJ18" s="22" t="n">
-        <v>174058</v>
+        <v>160650</v>
       </c>
       <c r="AK18" s="22" t="n">
-        <v>160650</v>
+        <v>154267</v>
       </c>
       <c r="AL18" s="22" t="n">
-        <v>154267</v>
+        <v>131191</v>
       </c>
       <c r="AM18" s="22" t="n">
-        <v>131191</v>
+        <v>104449</v>
       </c>
       <c r="AN18" s="22" t="n">
-        <v>104449</v>
+        <v>90897</v>
       </c>
       <c r="AO18" s="22" t="n">
-        <v>90897</v>
+        <v>119948</v>
       </c>
       <c r="AP18" s="22" t="n">
-        <v>119948</v>
+        <v>99720</v>
       </c>
       <c r="AQ18" s="22" t="n">
-        <v>99720</v>
+        <v>121621</v>
       </c>
       <c r="AR18" s="22" t="n">
-        <v>121621</v>
+        <v>121190</v>
       </c>
       <c r="AS18" s="22" t="n">
-        <v>121190</v>
+        <v>147210</v>
       </c>
       <c r="AT18" s="22" t="n">
-        <v>147210</v>
+        <v>146691</v>
       </c>
       <c r="AU18" s="22" t="n">
-        <v>146691</v>
+        <v>163852</v>
       </c>
       <c r="AV18" s="22" t="n">
-        <v>163852</v>
+        <v>150786</v>
       </c>
       <c r="AW18" s="22" t="n">
-        <v>150786</v>
+        <v>174698</v>
       </c>
       <c r="AX18" s="22" t="n">
-        <v>174698</v>
+        <v>143543</v>
       </c>
       <c r="AY18" s="22" t="n">
-        <v>143543</v>
+        <v>103887</v>
       </c>
       <c r="AZ18" s="22" t="n">
-        <v>103887</v>
+        <v>114554</v>
       </c>
       <c r="BA18" s="22" t="n">
-        <v>114554</v>
+        <v>161290</v>
       </c>
       <c r="BB18" s="22" t="n">
-        <v>161290</v>
+        <v>122283</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4816,19 +4816,19 @@
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13" t="n">
-        <v>548</v>
+        <v>940</v>
       </c>
       <c r="F25" s="13" t="n">
-        <v>940</v>
+        <v>445</v>
       </c>
       <c r="G25" s="13" t="n">
-        <v>445</v>
+        <v>2603</v>
       </c>
       <c r="H25" s="13" t="n">
-        <v>2603</v>
+        <v>570</v>
       </c>
       <c r="I25" s="13" t="n">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="J25" s="13" t="n">
         <v>0</v>
@@ -4836,8 +4836,8 @@
       <c r="K25" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="L25" s="13" t="n">
-        <v>0</v>
+      <c r="L25" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>57</v>
@@ -4975,154 +4975,154 @@
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="16" t="n">
-        <v>141095</v>
+        <v>185180</v>
       </c>
       <c r="F26" s="16" t="n">
-        <v>185180</v>
+        <v>143387</v>
       </c>
       <c r="G26" s="16" t="n">
-        <v>143387</v>
+        <v>191311</v>
       </c>
       <c r="H26" s="16" t="n">
-        <v>191311</v>
+        <v>188894</v>
       </c>
       <c r="I26" s="16" t="n">
-        <v>188894</v>
+        <v>194888</v>
       </c>
       <c r="J26" s="16" t="n">
-        <v>194888</v>
+        <v>162967</v>
       </c>
       <c r="K26" s="16" t="n">
-        <v>162967</v>
+        <v>158032</v>
       </c>
       <c r="L26" s="16" t="n">
-        <v>158032</v>
+        <v>157873</v>
       </c>
       <c r="M26" s="16" t="n">
-        <v>157873</v>
+        <v>121811</v>
       </c>
       <c r="N26" s="16" t="n">
-        <v>121811</v>
+        <v>140096</v>
       </c>
       <c r="O26" s="16" t="n">
-        <v>140096</v>
+        <v>121070</v>
       </c>
       <c r="P26" s="16" t="n">
-        <v>121070</v>
+        <v>167440</v>
       </c>
       <c r="Q26" s="16" t="n">
-        <v>167440</v>
+        <v>176186</v>
       </c>
       <c r="R26" s="16" t="n">
-        <v>176186</v>
+        <v>104470</v>
       </c>
       <c r="S26" s="16" t="n">
-        <v>104470</v>
+        <v>170406</v>
       </c>
       <c r="T26" s="16" t="n">
-        <v>170406</v>
+        <v>184777</v>
       </c>
       <c r="U26" s="16" t="n">
-        <v>184777</v>
+        <v>174237</v>
       </c>
       <c r="V26" s="16" t="n">
-        <v>174237</v>
+        <v>125899</v>
       </c>
       <c r="W26" s="16" t="n">
-        <v>125899</v>
+        <v>129770</v>
       </c>
       <c r="X26" s="16" t="n">
-        <v>129770</v>
+        <v>131144</v>
       </c>
       <c r="Y26" s="16" t="n">
-        <v>131144</v>
+        <v>120910</v>
       </c>
       <c r="Z26" s="16" t="n">
-        <v>120910</v>
+        <v>84455</v>
       </c>
       <c r="AA26" s="16" t="n">
-        <v>84455</v>
+        <v>84450</v>
       </c>
       <c r="AB26" s="16" t="n">
-        <v>84450</v>
+        <v>83707</v>
       </c>
       <c r="AC26" s="16" t="n">
-        <v>83707</v>
+        <v>123616</v>
       </c>
       <c r="AD26" s="16" t="n">
-        <v>123616</v>
+        <v>95970</v>
       </c>
       <c r="AE26" s="16" t="n">
-        <v>95970</v>
+        <v>131250</v>
       </c>
       <c r="AF26" s="16" t="n">
-        <v>131250</v>
+        <v>142101</v>
       </c>
       <c r="AG26" s="16" t="n">
-        <v>142101</v>
+        <v>85577</v>
       </c>
       <c r="AH26" s="16" t="n">
-        <v>85577</v>
+        <v>66495</v>
       </c>
       <c r="AI26" s="16" t="n">
-        <v>66495</v>
+        <v>139567</v>
       </c>
       <c r="AJ26" s="16" t="n">
-        <v>139567</v>
+        <v>137687</v>
       </c>
       <c r="AK26" s="16" t="n">
-        <v>137687</v>
+        <v>129551</v>
       </c>
       <c r="AL26" s="16" t="n">
-        <v>129551</v>
+        <v>125399</v>
       </c>
       <c r="AM26" s="16" t="n">
-        <v>125399</v>
+        <v>95539</v>
       </c>
       <c r="AN26" s="16" t="n">
-        <v>95539</v>
+        <v>85824</v>
       </c>
       <c r="AO26" s="16" t="n">
-        <v>85824</v>
+        <v>124397</v>
       </c>
       <c r="AP26" s="16" t="n">
-        <v>124397</v>
+        <v>93901</v>
       </c>
       <c r="AQ26" s="16" t="n">
-        <v>93901</v>
+        <v>112747</v>
       </c>
       <c r="AR26" s="16" t="n">
-        <v>112747</v>
+        <v>114670</v>
       </c>
       <c r="AS26" s="16" t="n">
-        <v>114670</v>
+        <v>129928</v>
       </c>
       <c r="AT26" s="16" t="n">
-        <v>129928</v>
+        <v>144306</v>
       </c>
       <c r="AU26" s="16" t="n">
-        <v>144306</v>
+        <v>153191</v>
       </c>
       <c r="AV26" s="16" t="n">
-        <v>153191</v>
+        <v>147638</v>
       </c>
       <c r="AW26" s="16" t="n">
-        <v>147638</v>
+        <v>158572</v>
       </c>
       <c r="AX26" s="16" t="n">
-        <v>158572</v>
+        <v>145394</v>
       </c>
       <c r="AY26" s="16" t="n">
-        <v>145394</v>
+        <v>104861</v>
       </c>
       <c r="AZ26" s="16" t="n">
-        <v>104861</v>
+        <v>108645</v>
       </c>
       <c r="BA26" s="16" t="n">
-        <v>108645</v>
+        <v>163967</v>
       </c>
       <c r="BB26" s="16" t="n">
-        <v>163967</v>
+        <v>133660</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5190,8 +5190,8 @@
       <c r="W27" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="X27" s="13" t="s">
-        <v>57</v>
+      <c r="X27" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="Y27" s="13" t="n">
         <v>0</v>
@@ -5226,8 +5226,8 @@
       <c r="AI27" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ27" s="13" t="n">
-        <v>0</v>
+      <c r="AJ27" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AK27" s="13" t="s">
         <v>57</v>
@@ -5328,107 +5328,107 @@
       <c r="P28" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="Q28" s="16" t="s">
-        <v>57</v>
+      <c r="Q28" s="16" t="n">
+        <v>7933</v>
       </c>
       <c r="R28" s="16" t="n">
-        <v>7933</v>
+        <v>10465</v>
       </c>
       <c r="S28" s="16" t="n">
-        <v>10465</v>
+        <v>15406</v>
       </c>
       <c r="T28" s="16" t="n">
-        <v>15406</v>
+        <v>11842</v>
       </c>
       <c r="U28" s="16" t="n">
-        <v>11842</v>
+        <v>9800</v>
       </c>
       <c r="V28" s="16" t="n">
-        <v>9800</v>
+        <v>12098</v>
       </c>
       <c r="W28" s="16" t="n">
-        <v>12098</v>
+        <v>12079</v>
       </c>
       <c r="X28" s="16" t="n">
-        <v>12079</v>
+        <v>13042</v>
       </c>
       <c r="Y28" s="16" t="n">
-        <v>13042</v>
+        <v>13195</v>
       </c>
       <c r="Z28" s="16" t="n">
-        <v>13195</v>
+        <v>11960</v>
       </c>
       <c r="AA28" s="16" t="n">
-        <v>11960</v>
+        <v>3764</v>
       </c>
       <c r="AB28" s="16" t="n">
-        <v>3764</v>
+        <v>10082</v>
       </c>
       <c r="AC28" s="16" t="n">
-        <v>10082</v>
+        <v>11114</v>
       </c>
       <c r="AD28" s="16" t="n">
-        <v>11114</v>
+        <v>12138</v>
       </c>
       <c r="AE28" s="16" t="n">
-        <v>12138</v>
+        <v>12011</v>
       </c>
       <c r="AF28" s="16" t="n">
-        <v>12011</v>
+        <v>12122</v>
       </c>
       <c r="AG28" s="16" t="n">
-        <v>12122</v>
+        <v>9034</v>
       </c>
       <c r="AH28" s="16" t="n">
-        <v>9034</v>
+        <v>5877</v>
       </c>
       <c r="AI28" s="16" t="n">
-        <v>5877</v>
+        <v>8857</v>
       </c>
       <c r="AJ28" s="16" t="n">
-        <v>8857</v>
+        <v>17555</v>
       </c>
       <c r="AK28" s="16" t="n">
-        <v>17555</v>
+        <v>15775</v>
       </c>
       <c r="AL28" s="16" t="n">
-        <v>15775</v>
+        <v>9340</v>
       </c>
       <c r="AM28" s="16" t="n">
-        <v>9340</v>
+        <v>5074</v>
       </c>
       <c r="AN28" s="16" t="n">
-        <v>5074</v>
+        <v>6061</v>
       </c>
       <c r="AO28" s="16" t="n">
-        <v>6061</v>
+        <v>8435</v>
       </c>
       <c r="AP28" s="16" t="n">
-        <v>8435</v>
+        <v>11889</v>
       </c>
       <c r="AQ28" s="16" t="n">
-        <v>11889</v>
+        <v>12114</v>
       </c>
       <c r="AR28" s="16" t="n">
-        <v>12114</v>
+        <v>8086</v>
       </c>
       <c r="AS28" s="16" t="n">
-        <v>8086</v>
+        <v>7774</v>
       </c>
       <c r="AT28" s="16" t="n">
-        <v>7774</v>
-      </c>
-      <c r="AU28" s="16" t="n">
         <v>9173</v>
       </c>
-      <c r="AV28" s="16" t="s">
-        <v>57</v>
+      <c r="AU28" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV28" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AW28" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AX28" s="16" t="n">
-        <v>0</v>
+      <c r="AX28" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AY28" s="16" t="s">
         <v>57</v>
@@ -5508,44 +5508,44 @@
       <c r="W29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="X29" s="13" t="s">
-        <v>57</v>
+      <c r="X29" s="13" t="n">
+        <v>24924</v>
       </c>
       <c r="Y29" s="13" t="n">
-        <v>24924</v>
+        <v>18877</v>
       </c>
       <c r="Z29" s="13" t="n">
-        <v>18877</v>
+        <v>53638</v>
       </c>
       <c r="AA29" s="13" t="n">
-        <v>53638</v>
+        <v>32853</v>
       </c>
       <c r="AB29" s="13" t="n">
-        <v>32853</v>
+        <v>27396</v>
       </c>
       <c r="AC29" s="13" t="n">
-        <v>27396</v>
+        <v>35335</v>
       </c>
       <c r="AD29" s="13" t="n">
-        <v>35335</v>
+        <v>45928</v>
       </c>
       <c r="AE29" s="13" t="n">
-        <v>45928</v>
+        <v>21544</v>
       </c>
       <c r="AF29" s="13" t="n">
-        <v>21544</v>
+        <v>34453</v>
       </c>
       <c r="AG29" s="13" t="n">
-        <v>34453</v>
+        <v>21711</v>
       </c>
       <c r="AH29" s="13" t="n">
-        <v>21711</v>
+        <v>23938</v>
       </c>
       <c r="AI29" s="13" t="n">
-        <v>23938</v>
-      </c>
-      <c r="AJ29" s="13" t="n">
         <v>20628</v>
+      </c>
+      <c r="AJ29" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AK29" s="13" t="s">
         <v>57</v>
@@ -5722,8 +5722,8 @@
       <c r="W31" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="X31" s="20" t="s">
-        <v>57</v>
+      <c r="X31" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="Y31" s="20" t="n">
         <v>0</v>
@@ -5936,8 +5936,8 @@
       <c r="W33" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="X33" s="20" t="s">
-        <v>57</v>
+      <c r="X33" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="Y33" s="20" t="n">
         <v>0</v>
@@ -6037,154 +6037,154 @@
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22" t="n">
-        <v>141643</v>
+        <v>186120</v>
       </c>
       <c r="F34" s="22" t="n">
-        <v>186120</v>
+        <v>143832</v>
       </c>
       <c r="G34" s="22" t="n">
-        <v>143832</v>
+        <v>193914</v>
       </c>
       <c r="H34" s="22" t="n">
-        <v>193914</v>
+        <v>189464</v>
       </c>
       <c r="I34" s="22" t="n">
-        <v>189464</v>
+        <v>194888</v>
       </c>
       <c r="J34" s="22" t="n">
-        <v>194888</v>
+        <v>162967</v>
       </c>
       <c r="K34" s="22" t="n">
-        <v>162967</v>
+        <v>158032</v>
       </c>
       <c r="L34" s="22" t="n">
-        <v>158032</v>
+        <v>157873</v>
       </c>
       <c r="M34" s="22" t="n">
-        <v>157873</v>
+        <v>121811</v>
       </c>
       <c r="N34" s="22" t="n">
-        <v>121811</v>
+        <v>140096</v>
       </c>
       <c r="O34" s="22" t="n">
-        <v>140096</v>
+        <v>121070</v>
       </c>
       <c r="P34" s="22" t="n">
-        <v>121070</v>
+        <v>167440</v>
       </c>
       <c r="Q34" s="22" t="n">
-        <v>167440</v>
+        <v>184119</v>
       </c>
       <c r="R34" s="22" t="n">
-        <v>184119</v>
+        <v>114935</v>
       </c>
       <c r="S34" s="22" t="n">
-        <v>114935</v>
+        <v>185812</v>
       </c>
       <c r="T34" s="22" t="n">
-        <v>185812</v>
+        <v>196619</v>
       </c>
       <c r="U34" s="22" t="n">
-        <v>196619</v>
+        <v>184037</v>
       </c>
       <c r="V34" s="22" t="n">
-        <v>184037</v>
+        <v>137997</v>
       </c>
       <c r="W34" s="22" t="n">
-        <v>137997</v>
+        <v>141849</v>
       </c>
       <c r="X34" s="22" t="n">
-        <v>141849</v>
+        <v>169110</v>
       </c>
       <c r="Y34" s="22" t="n">
-        <v>169110</v>
+        <v>152982</v>
       </c>
       <c r="Z34" s="22" t="n">
-        <v>152982</v>
+        <v>150053</v>
       </c>
       <c r="AA34" s="22" t="n">
-        <v>150053</v>
+        <v>121067</v>
       </c>
       <c r="AB34" s="22" t="n">
-        <v>121067</v>
+        <v>121185</v>
       </c>
       <c r="AC34" s="22" t="n">
-        <v>121185</v>
+        <v>170065</v>
       </c>
       <c r="AD34" s="22" t="n">
-        <v>170065</v>
+        <v>154036</v>
       </c>
       <c r="AE34" s="22" t="n">
-        <v>154036</v>
+        <v>164805</v>
       </c>
       <c r="AF34" s="22" t="n">
-        <v>164805</v>
+        <v>188676</v>
       </c>
       <c r="AG34" s="22" t="n">
-        <v>188676</v>
+        <v>116322</v>
       </c>
       <c r="AH34" s="22" t="n">
-        <v>116322</v>
+        <v>96310</v>
       </c>
       <c r="AI34" s="22" t="n">
-        <v>96310</v>
+        <v>169052</v>
       </c>
       <c r="AJ34" s="22" t="n">
-        <v>169052</v>
+        <v>155242</v>
       </c>
       <c r="AK34" s="22" t="n">
-        <v>155242</v>
+        <v>145326</v>
       </c>
       <c r="AL34" s="22" t="n">
-        <v>145326</v>
+        <v>134739</v>
       </c>
       <c r="AM34" s="22" t="n">
-        <v>134739</v>
+        <v>100613</v>
       </c>
       <c r="AN34" s="22" t="n">
-        <v>100613</v>
+        <v>91885</v>
       </c>
       <c r="AO34" s="22" t="n">
-        <v>91885</v>
+        <v>132832</v>
       </c>
       <c r="AP34" s="22" t="n">
-        <v>132832</v>
+        <v>105790</v>
       </c>
       <c r="AQ34" s="22" t="n">
-        <v>105790</v>
+        <v>124861</v>
       </c>
       <c r="AR34" s="22" t="n">
-        <v>124861</v>
+        <v>122756</v>
       </c>
       <c r="AS34" s="22" t="n">
-        <v>122756</v>
+        <v>137702</v>
       </c>
       <c r="AT34" s="22" t="n">
-        <v>137702</v>
+        <v>153479</v>
       </c>
       <c r="AU34" s="22" t="n">
-        <v>153479</v>
+        <v>153191</v>
       </c>
       <c r="AV34" s="22" t="n">
-        <v>153191</v>
+        <v>147638</v>
       </c>
       <c r="AW34" s="22" t="n">
-        <v>147638</v>
+        <v>158572</v>
       </c>
       <c r="AX34" s="22" t="n">
-        <v>158572</v>
+        <v>145394</v>
       </c>
       <c r="AY34" s="22" t="n">
-        <v>145394</v>
+        <v>104861</v>
       </c>
       <c r="AZ34" s="22" t="n">
-        <v>104861</v>
+        <v>108645</v>
       </c>
       <c r="BA34" s="22" t="n">
-        <v>108645</v>
+        <v>163967</v>
       </c>
       <c r="BB34" s="22" t="n">
-        <v>163967</v>
+        <v>133660</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6630,19 +6630,19 @@
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13" t="n">
-        <v>403</v>
+        <v>689</v>
       </c>
       <c r="F41" s="13" t="n">
-        <v>689</v>
+        <v>327</v>
       </c>
       <c r="G41" s="13" t="n">
-        <v>327</v>
+        <v>2627</v>
       </c>
       <c r="H41" s="13" t="n">
-        <v>2627</v>
+        <v>575</v>
       </c>
       <c r="I41" s="13" t="n">
-        <v>575</v>
+        <v>0</v>
       </c>
       <c r="J41" s="13" t="n">
         <v>0</v>
@@ -6650,8 +6650,8 @@
       <c r="K41" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="L41" s="13" t="n">
-        <v>0</v>
+      <c r="L41" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="M41" s="13" t="s">
         <v>57</v>
@@ -6789,154 +6789,154 @@
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="16" t="n">
-        <v>161617</v>
+        <v>212214</v>
       </c>
       <c r="F42" s="16" t="n">
-        <v>212214</v>
+        <v>170668</v>
       </c>
       <c r="G42" s="16" t="n">
-        <v>170668</v>
+        <v>235501</v>
       </c>
       <c r="H42" s="16" t="n">
-        <v>235501</v>
+        <v>235482</v>
       </c>
       <c r="I42" s="16" t="n">
-        <v>235482</v>
+        <v>295086</v>
       </c>
       <c r="J42" s="16" t="n">
-        <v>295086</v>
+        <v>275887</v>
       </c>
       <c r="K42" s="16" t="n">
-        <v>275887</v>
+        <v>276303</v>
       </c>
       <c r="L42" s="16" t="n">
-        <v>276303</v>
+        <v>278664</v>
       </c>
       <c r="M42" s="16" t="n">
-        <v>278664</v>
+        <v>217656</v>
       </c>
       <c r="N42" s="16" t="n">
-        <v>217656</v>
+        <v>245725</v>
       </c>
       <c r="O42" s="16" t="n">
-        <v>245725</v>
+        <v>210916</v>
       </c>
       <c r="P42" s="16" t="n">
-        <v>210916</v>
+        <v>289332</v>
       </c>
       <c r="Q42" s="16" t="n">
-        <v>289332</v>
+        <v>306041</v>
       </c>
       <c r="R42" s="16" t="n">
-        <v>306041</v>
+        <v>180591</v>
       </c>
       <c r="S42" s="16" t="n">
-        <v>180591</v>
+        <v>300091</v>
       </c>
       <c r="T42" s="16" t="n">
-        <v>300091</v>
+        <v>335127</v>
       </c>
       <c r="U42" s="16" t="n">
-        <v>335127</v>
+        <v>357665</v>
       </c>
       <c r="V42" s="16" t="n">
-        <v>357665</v>
+        <v>284168</v>
       </c>
       <c r="W42" s="16" t="n">
-        <v>284168</v>
+        <v>325104</v>
       </c>
       <c r="X42" s="16" t="n">
-        <v>325104</v>
+        <v>342153</v>
       </c>
       <c r="Y42" s="16" t="n">
-        <v>342153</v>
+        <v>327434</v>
       </c>
       <c r="Z42" s="16" t="n">
-        <v>327434</v>
+        <v>217430</v>
       </c>
       <c r="AA42" s="16" t="n">
-        <v>217430</v>
+        <v>222052</v>
       </c>
       <c r="AB42" s="16" t="n">
-        <v>222052</v>
+        <v>221545</v>
       </c>
       <c r="AC42" s="16" t="n">
-        <v>221545</v>
+        <v>338741</v>
       </c>
       <c r="AD42" s="16" t="n">
-        <v>338741</v>
+        <v>269759</v>
       </c>
       <c r="AE42" s="16" t="n">
-        <v>269759</v>
+        <v>491223</v>
       </c>
       <c r="AF42" s="16" t="n">
-        <v>491223</v>
+        <v>546159</v>
       </c>
       <c r="AG42" s="16" t="n">
-        <v>546159</v>
+        <v>326604</v>
       </c>
       <c r="AH42" s="16" t="n">
-        <v>326604</v>
+        <v>317905</v>
       </c>
       <c r="AI42" s="16" t="n">
-        <v>317905</v>
+        <v>724153</v>
       </c>
       <c r="AJ42" s="16" t="n">
-        <v>724153</v>
+        <v>613946</v>
       </c>
       <c r="AK42" s="16" t="n">
-        <v>613946</v>
+        <v>563533</v>
       </c>
       <c r="AL42" s="16" t="n">
-        <v>563533</v>
+        <v>585341</v>
       </c>
       <c r="AM42" s="16" t="n">
-        <v>585341</v>
+        <v>434715</v>
       </c>
       <c r="AN42" s="16" t="n">
-        <v>434715</v>
+        <v>399523</v>
       </c>
       <c r="AO42" s="16" t="n">
-        <v>399523</v>
+        <v>635446</v>
       </c>
       <c r="AP42" s="16" t="n">
-        <v>635446</v>
+        <v>494566</v>
       </c>
       <c r="AQ42" s="16" t="n">
-        <v>494566</v>
+        <v>586217</v>
       </c>
       <c r="AR42" s="16" t="n">
-        <v>586217</v>
+        <v>612616</v>
       </c>
       <c r="AS42" s="16" t="n">
-        <v>612616</v>
+        <v>699832</v>
       </c>
       <c r="AT42" s="16" t="n">
-        <v>699832</v>
+        <v>758148</v>
       </c>
       <c r="AU42" s="16" t="n">
-        <v>758148</v>
+        <v>798773</v>
       </c>
       <c r="AV42" s="16" t="n">
-        <v>798773</v>
+        <v>761646</v>
       </c>
       <c r="AW42" s="16" t="n">
-        <v>761646</v>
+        <v>772615</v>
       </c>
       <c r="AX42" s="16" t="n">
-        <v>772615</v>
+        <v>763214</v>
       </c>
       <c r="AY42" s="16" t="n">
-        <v>763214</v>
+        <v>569499</v>
       </c>
       <c r="AZ42" s="16" t="n">
-        <v>569499</v>
+        <v>574962</v>
       </c>
       <c r="BA42" s="16" t="n">
-        <v>574962</v>
+        <v>917963</v>
       </c>
       <c r="BB42" s="16" t="n">
-        <v>917963</v>
+        <v>812499</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7004,8 +7004,8 @@
       <c r="W43" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="X43" s="13" t="s">
-        <v>57</v>
+      <c r="X43" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="Y43" s="13" t="n">
         <v>0</v>
@@ -7040,8 +7040,8 @@
       <c r="AI43" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ43" s="13" t="n">
-        <v>0</v>
+      <c r="AJ43" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AK43" s="13" t="s">
         <v>57</v>
@@ -7142,107 +7142,107 @@
       <c r="P44" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="Q44" s="16" t="s">
-        <v>57</v>
+      <c r="Q44" s="16" t="n">
+        <v>8644</v>
       </c>
       <c r="R44" s="16" t="n">
-        <v>8644</v>
+        <v>11092</v>
       </c>
       <c r="S44" s="16" t="n">
-        <v>11092</v>
+        <v>16507</v>
       </c>
       <c r="T44" s="16" t="n">
-        <v>16507</v>
+        <v>14401</v>
       </c>
       <c r="U44" s="16" t="n">
-        <v>14401</v>
+        <v>14194</v>
       </c>
       <c r="V44" s="16" t="n">
-        <v>14194</v>
+        <v>17486</v>
       </c>
       <c r="W44" s="16" t="n">
-        <v>17486</v>
+        <v>19932</v>
       </c>
       <c r="X44" s="16" t="n">
-        <v>19932</v>
+        <v>19303</v>
       </c>
       <c r="Y44" s="16" t="n">
-        <v>19303</v>
+        <v>19838</v>
       </c>
       <c r="Z44" s="16" t="n">
-        <v>19838</v>
+        <v>21275</v>
       </c>
       <c r="AA44" s="16" t="n">
-        <v>21275</v>
+        <v>6030</v>
       </c>
       <c r="AB44" s="16" t="n">
-        <v>6030</v>
+        <v>18180</v>
       </c>
       <c r="AC44" s="16" t="n">
-        <v>18180</v>
+        <v>20242</v>
       </c>
       <c r="AD44" s="16" t="n">
-        <v>20242</v>
+        <v>23916</v>
       </c>
       <c r="AE44" s="16" t="n">
-        <v>23916</v>
+        <v>23993</v>
       </c>
       <c r="AF44" s="16" t="n">
-        <v>23993</v>
+        <v>30757</v>
       </c>
       <c r="AG44" s="16" t="n">
-        <v>30757</v>
+        <v>21122</v>
       </c>
       <c r="AH44" s="16" t="n">
-        <v>21122</v>
+        <v>13493</v>
       </c>
       <c r="AI44" s="16" t="n">
-        <v>13493</v>
+        <v>28991</v>
       </c>
       <c r="AJ44" s="16" t="n">
-        <v>28991</v>
+        <v>52812</v>
       </c>
       <c r="AK44" s="16" t="n">
-        <v>52812</v>
+        <v>49411</v>
       </c>
       <c r="AL44" s="16" t="n">
-        <v>49411</v>
+        <v>27599</v>
       </c>
       <c r="AM44" s="16" t="n">
-        <v>27599</v>
+        <v>14437</v>
       </c>
       <c r="AN44" s="16" t="n">
-        <v>14437</v>
+        <v>14261</v>
       </c>
       <c r="AO44" s="16" t="n">
-        <v>14261</v>
+        <v>33617</v>
       </c>
       <c r="AP44" s="16" t="n">
-        <v>33617</v>
+        <v>40070</v>
       </c>
       <c r="AQ44" s="16" t="n">
-        <v>40070</v>
+        <v>49142</v>
       </c>
       <c r="AR44" s="16" t="n">
-        <v>49142</v>
+        <v>31194</v>
       </c>
       <c r="AS44" s="16" t="n">
-        <v>31194</v>
+        <v>28831</v>
       </c>
       <c r="AT44" s="16" t="n">
-        <v>28831</v>
-      </c>
-      <c r="AU44" s="16" t="n">
         <v>37063</v>
       </c>
-      <c r="AV44" s="16" t="s">
-        <v>57</v>
+      <c r="AU44" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV44" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AW44" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AX44" s="16" t="n">
-        <v>0</v>
+      <c r="AX44" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AY44" s="16" t="s">
         <v>57</v>
@@ -7322,44 +7322,44 @@
       <c r="W45" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="X45" s="13" t="s">
-        <v>57</v>
+      <c r="X45" s="13" t="n">
+        <v>78788</v>
       </c>
       <c r="Y45" s="13" t="n">
-        <v>78788</v>
+        <v>56503</v>
       </c>
       <c r="Z45" s="13" t="n">
-        <v>56503</v>
+        <v>136759</v>
       </c>
       <c r="AA45" s="13" t="n">
-        <v>136759</v>
+        <v>91590</v>
       </c>
       <c r="AB45" s="13" t="n">
-        <v>91590</v>
+        <v>84827</v>
       </c>
       <c r="AC45" s="13" t="n">
-        <v>84827</v>
+        <v>147508</v>
       </c>
       <c r="AD45" s="13" t="n">
-        <v>147508</v>
+        <v>193732</v>
       </c>
       <c r="AE45" s="13" t="n">
-        <v>193732</v>
+        <v>98918</v>
       </c>
       <c r="AF45" s="13" t="n">
-        <v>98918</v>
+        <v>160643</v>
       </c>
       <c r="AG45" s="13" t="n">
-        <v>160643</v>
+        <v>101696</v>
       </c>
       <c r="AH45" s="13" t="n">
-        <v>101696</v>
+        <v>123442</v>
       </c>
       <c r="AI45" s="13" t="n">
-        <v>123442</v>
-      </c>
-      <c r="AJ45" s="13" t="n">
         <v>138250</v>
+      </c>
+      <c r="AJ45" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AK45" s="13" t="s">
         <v>57</v>
@@ -7538,8 +7538,8 @@
       <c r="W47" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="X47" s="20" t="s">
-        <v>57</v>
+      <c r="X47" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="Y47" s="23" t="n">
         <v>0</v>
@@ -7754,8 +7754,8 @@
       <c r="W49" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="X49" s="20" t="s">
-        <v>57</v>
+      <c r="X49" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="Y49" s="23" t="n">
         <v>0</v>
@@ -7970,8 +7970,8 @@
       <c r="W51" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="X51" s="13" t="s">
-        <v>57</v>
+      <c r="X51" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="Y51" s="13" t="n">
         <v>0</v>
@@ -8071,154 +8071,154 @@
       <c r="C52" s="22"/>
       <c r="D52" s="22"/>
       <c r="E52" s="22" t="n">
-        <v>162020</v>
+        <v>212903</v>
       </c>
       <c r="F52" s="22" t="n">
-        <v>212903</v>
+        <v>170995</v>
       </c>
       <c r="G52" s="22" t="n">
-        <v>170995</v>
+        <v>238128</v>
       </c>
       <c r="H52" s="22" t="n">
-        <v>238128</v>
+        <v>236057</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>236057</v>
+        <v>295086</v>
       </c>
       <c r="J52" s="22" t="n">
-        <v>295086</v>
+        <v>275887</v>
       </c>
       <c r="K52" s="22" t="n">
-        <v>275887</v>
+        <v>276303</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>276303</v>
+        <v>278664</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>278664</v>
+        <v>217656</v>
       </c>
       <c r="N52" s="22" t="n">
-        <v>217656</v>
+        <v>245725</v>
       </c>
       <c r="O52" s="22" t="n">
-        <v>245725</v>
+        <v>210916</v>
       </c>
       <c r="P52" s="22" t="n">
-        <v>210916</v>
+        <v>289332</v>
       </c>
       <c r="Q52" s="22" t="n">
-        <v>289332</v>
+        <v>314685</v>
       </c>
       <c r="R52" s="22" t="n">
-        <v>314685</v>
+        <v>191683</v>
       </c>
       <c r="S52" s="22" t="n">
-        <v>191683</v>
+        <v>316598</v>
       </c>
       <c r="T52" s="22" t="n">
-        <v>316598</v>
+        <v>349528</v>
       </c>
       <c r="U52" s="22" t="n">
-        <v>349528</v>
+        <v>371859</v>
       </c>
       <c r="V52" s="22" t="n">
-        <v>371859</v>
+        <v>301654</v>
       </c>
       <c r="W52" s="22" t="n">
-        <v>301654</v>
+        <v>345036</v>
       </c>
       <c r="X52" s="22" t="n">
-        <v>345036</v>
+        <v>440244</v>
       </c>
       <c r="Y52" s="22" t="n">
-        <v>440244</v>
+        <v>403775</v>
       </c>
       <c r="Z52" s="22" t="n">
-        <v>403775</v>
+        <v>375464</v>
       </c>
       <c r="AA52" s="22" t="n">
-        <v>375464</v>
+        <v>319672</v>
       </c>
       <c r="AB52" s="22" t="n">
-        <v>319672</v>
+        <v>324552</v>
       </c>
       <c r="AC52" s="22" t="n">
-        <v>324552</v>
+        <v>506491</v>
       </c>
       <c r="AD52" s="22" t="n">
-        <v>506491</v>
+        <v>487407</v>
       </c>
       <c r="AE52" s="22" t="n">
-        <v>487407</v>
+        <v>614134</v>
       </c>
       <c r="AF52" s="22" t="n">
-        <v>614134</v>
+        <v>737559</v>
       </c>
       <c r="AG52" s="22" t="n">
-        <v>737559</v>
+        <v>449422</v>
       </c>
       <c r="AH52" s="22" t="n">
-        <v>449422</v>
+        <v>454840</v>
       </c>
       <c r="AI52" s="22" t="n">
-        <v>454840</v>
+        <v>891394</v>
       </c>
       <c r="AJ52" s="22" t="n">
-        <v>891394</v>
+        <v>666758</v>
       </c>
       <c r="AK52" s="22" t="n">
-        <v>666758</v>
+        <v>612944</v>
       </c>
       <c r="AL52" s="22" t="n">
-        <v>612944</v>
+        <v>612940</v>
       </c>
       <c r="AM52" s="22" t="n">
-        <v>612940</v>
+        <v>449152</v>
       </c>
       <c r="AN52" s="22" t="n">
-        <v>449152</v>
+        <v>413784</v>
       </c>
       <c r="AO52" s="22" t="n">
-        <v>413784</v>
+        <v>669063</v>
       </c>
       <c r="AP52" s="22" t="n">
-        <v>669063</v>
+        <v>534636</v>
       </c>
       <c r="AQ52" s="22" t="n">
-        <v>534636</v>
+        <v>635359</v>
       </c>
       <c r="AR52" s="22" t="n">
-        <v>635359</v>
+        <v>643810</v>
       </c>
       <c r="AS52" s="22" t="n">
-        <v>643810</v>
+        <v>728663</v>
       </c>
       <c r="AT52" s="22" t="n">
-        <v>728663</v>
+        <v>795211</v>
       </c>
       <c r="AU52" s="22" t="n">
-        <v>795211</v>
+        <v>798773</v>
       </c>
       <c r="AV52" s="22" t="n">
-        <v>798773</v>
+        <v>761646</v>
       </c>
       <c r="AW52" s="22" t="n">
-        <v>761646</v>
+        <v>772615</v>
       </c>
       <c r="AX52" s="22" t="n">
-        <v>772615</v>
+        <v>763214</v>
       </c>
       <c r="AY52" s="22" t="n">
-        <v>763214</v>
+        <v>569499</v>
       </c>
       <c r="AZ52" s="22" t="n">
-        <v>569499</v>
+        <v>574962</v>
       </c>
       <c r="BA52" s="22" t="n">
-        <v>574962</v>
+        <v>917963</v>
       </c>
       <c r="BB52" s="22" t="n">
-        <v>917963</v>
+        <v>812499</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8664,19 +8664,19 @@
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="13" t="n">
-        <v>735401</v>
+        <v>732979</v>
       </c>
       <c r="F59" s="13" t="n">
-        <v>732979</v>
+        <v>734831</v>
       </c>
       <c r="G59" s="13" t="n">
-        <v>734831</v>
+        <v>1009220</v>
       </c>
       <c r="H59" s="13" t="n">
-        <v>1009220</v>
+        <v>1008772</v>
       </c>
       <c r="I59" s="13" t="n">
-        <v>1008772</v>
+        <v>0</v>
       </c>
       <c r="J59" s="13" t="n">
         <v>0</v>
@@ -8684,8 +8684,8 @@
       <c r="K59" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="L59" s="13" t="n">
-        <v>0</v>
+      <c r="L59" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="M59" s="13" t="s">
         <v>57</v>
@@ -8823,154 +8823,154 @@
       </c>
       <c r="D60" s="16"/>
       <c r="E60" s="16" t="n">
-        <v>1145448</v>
+        <v>1145988</v>
       </c>
       <c r="F60" s="16" t="n">
-        <v>1145988</v>
+        <v>1190261</v>
       </c>
       <c r="G60" s="16" t="n">
-        <v>1190261</v>
+        <v>1230985</v>
       </c>
       <c r="H60" s="16" t="n">
-        <v>1230985</v>
+        <v>1246636</v>
       </c>
       <c r="I60" s="16" t="n">
-        <v>1246636</v>
+        <v>1514131</v>
       </c>
       <c r="J60" s="16" t="n">
-        <v>1514131</v>
+        <v>1692901</v>
       </c>
       <c r="K60" s="16" t="n">
-        <v>1692901</v>
+        <v>1748399</v>
       </c>
       <c r="L60" s="16" t="n">
-        <v>1748399</v>
+        <v>1765115</v>
       </c>
       <c r="M60" s="16" t="n">
-        <v>1765115</v>
+        <v>1786834</v>
       </c>
       <c r="N60" s="16" t="n">
-        <v>1786834</v>
+        <v>1753976</v>
       </c>
       <c r="O60" s="16" t="n">
-        <v>1753976</v>
+        <v>1742100</v>
       </c>
       <c r="P60" s="16" t="n">
-        <v>1742100</v>
+        <v>1727974</v>
       </c>
       <c r="Q60" s="16" t="n">
-        <v>1727974</v>
+        <v>1737034</v>
       </c>
       <c r="R60" s="16" t="n">
-        <v>1737034</v>
+        <v>1728640</v>
       </c>
       <c r="S60" s="16" t="n">
-        <v>1728640</v>
+        <v>1761035</v>
       </c>
       <c r="T60" s="16" t="n">
-        <v>1761035</v>
+        <v>1813684</v>
       </c>
       <c r="U60" s="16" t="n">
-        <v>1813684</v>
+        <v>2052750</v>
       </c>
       <c r="V60" s="16" t="n">
-        <v>2052750</v>
+        <v>2257111</v>
       </c>
       <c r="W60" s="16" t="n">
-        <v>2257111</v>
+        <v>2505232</v>
       </c>
       <c r="X60" s="16" t="n">
-        <v>2505232</v>
+        <v>2608987</v>
       </c>
       <c r="Y60" s="16" t="n">
-        <v>2608987</v>
+        <v>2708080</v>
       </c>
       <c r="Z60" s="16" t="n">
-        <v>2708080</v>
+        <v>2574507</v>
       </c>
       <c r="AA60" s="16" t="n">
-        <v>2574507</v>
+        <v>2629390</v>
       </c>
       <c r="AB60" s="16" t="n">
-        <v>2629390</v>
+        <v>2646672</v>
       </c>
       <c r="AC60" s="16" t="n">
-        <v>2646672</v>
+        <v>2740268</v>
       </c>
       <c r="AD60" s="16" t="n">
-        <v>2740268</v>
+        <v>2810868</v>
       </c>
       <c r="AE60" s="16" t="n">
-        <v>2810868</v>
+        <v>3742651</v>
       </c>
       <c r="AF60" s="16" t="n">
-        <v>3742651</v>
+        <v>3843456</v>
       </c>
       <c r="AG60" s="16" t="n">
-        <v>3843456</v>
+        <v>3816493</v>
       </c>
       <c r="AH60" s="16" t="n">
-        <v>3816493</v>
+        <v>4780886</v>
       </c>
       <c r="AI60" s="16" t="n">
-        <v>4780886</v>
+        <v>5188569</v>
       </c>
       <c r="AJ60" s="16" t="n">
-        <v>5188569</v>
+        <v>4458998</v>
       </c>
       <c r="AK60" s="16" t="n">
-        <v>4458998</v>
+        <v>4349893</v>
       </c>
       <c r="AL60" s="16" t="n">
-        <v>4349893</v>
+        <v>4667828</v>
       </c>
       <c r="AM60" s="16" t="n">
-        <v>4667828</v>
+        <v>4550131</v>
       </c>
       <c r="AN60" s="16" t="n">
-        <v>4550131</v>
+        <v>4655143</v>
       </c>
       <c r="AO60" s="16" t="n">
-        <v>4655143</v>
+        <v>5108210</v>
       </c>
       <c r="AP60" s="16" t="n">
-        <v>5108210</v>
+        <v>5266887</v>
       </c>
       <c r="AQ60" s="16" t="n">
-        <v>5266887</v>
+        <v>5199402</v>
       </c>
       <c r="AR60" s="16" t="n">
-        <v>5199402</v>
+        <v>5342426</v>
       </c>
       <c r="AS60" s="16" t="n">
-        <v>5342426</v>
+        <v>5386306</v>
       </c>
       <c r="AT60" s="16" t="n">
-        <v>5386306</v>
+        <v>5253752</v>
       </c>
       <c r="AU60" s="16" t="n">
-        <v>5253752</v>
+        <v>5214229</v>
       </c>
       <c r="AV60" s="16" t="n">
-        <v>5214229</v>
+        <v>5158875</v>
       </c>
       <c r="AW60" s="16" t="n">
-        <v>5158875</v>
+        <v>4872329</v>
       </c>
       <c r="AX60" s="16" t="n">
-        <v>4872329</v>
+        <v>5249281</v>
       </c>
       <c r="AY60" s="16" t="n">
-        <v>5249281</v>
+        <v>5430990</v>
       </c>
       <c r="AZ60" s="16" t="n">
-        <v>5430990</v>
+        <v>5292117</v>
       </c>
       <c r="BA60" s="16" t="n">
-        <v>5292117</v>
+        <v>5598462</v>
       </c>
       <c r="BB60" s="16" t="n">
-        <v>5598462</v>
+        <v>6078849</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9017,98 +9017,98 @@
       <c r="P61" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Q61" s="13" t="s">
-        <v>57</v>
+      <c r="Q61" s="13" t="n">
+        <v>1089626</v>
       </c>
       <c r="R61" s="13" t="n">
-        <v>1089626</v>
+        <v>1059914</v>
       </c>
       <c r="S61" s="13" t="n">
-        <v>1059914</v>
+        <v>1071466</v>
       </c>
       <c r="T61" s="13" t="n">
-        <v>1071466</v>
+        <v>1216095</v>
       </c>
       <c r="U61" s="13" t="n">
-        <v>1216095</v>
+        <v>1448367</v>
       </c>
       <c r="V61" s="13" t="n">
-        <v>1448367</v>
+        <v>1445363</v>
       </c>
       <c r="W61" s="13" t="n">
-        <v>1445363</v>
+        <v>1650137</v>
       </c>
       <c r="X61" s="13" t="n">
-        <v>1650137</v>
+        <v>1480064</v>
       </c>
       <c r="Y61" s="13" t="n">
-        <v>1480064</v>
+        <v>1503448</v>
       </c>
       <c r="Z61" s="13" t="n">
-        <v>1503448</v>
+        <v>1778846</v>
       </c>
       <c r="AA61" s="13" t="n">
-        <v>1778846</v>
+        <v>1602019</v>
       </c>
       <c r="AB61" s="13" t="n">
-        <v>1602019</v>
+        <v>1803214</v>
       </c>
       <c r="AC61" s="13" t="n">
-        <v>1803214</v>
+        <v>1821306</v>
       </c>
       <c r="AD61" s="13" t="n">
-        <v>1821306</v>
+        <v>1970341</v>
       </c>
       <c r="AE61" s="13" t="n">
-        <v>1970341</v>
+        <v>1997586</v>
       </c>
       <c r="AF61" s="13" t="n">
-        <v>1997586</v>
+        <v>2537288</v>
       </c>
       <c r="AG61" s="13" t="n">
-        <v>2537288</v>
+        <v>2338056</v>
       </c>
       <c r="AH61" s="13" t="n">
-        <v>2338056</v>
+        <v>2295899</v>
       </c>
       <c r="AI61" s="13" t="n">
-        <v>2295899</v>
+        <v>3273230</v>
       </c>
       <c r="AJ61" s="13" t="n">
-        <v>3273230</v>
+        <v>3008374</v>
       </c>
       <c r="AK61" s="13" t="n">
-        <v>3008374</v>
+        <v>3132235</v>
       </c>
       <c r="AL61" s="13" t="n">
-        <v>3132235</v>
+        <v>2954925</v>
       </c>
       <c r="AM61" s="13" t="n">
-        <v>2954925</v>
+        <v>2845290</v>
       </c>
       <c r="AN61" s="13" t="n">
-        <v>2845290</v>
+        <v>2352912</v>
       </c>
       <c r="AO61" s="13" t="n">
-        <v>2352912</v>
+        <v>3985418</v>
       </c>
       <c r="AP61" s="13" t="n">
-        <v>3985418</v>
+        <v>3370342</v>
       </c>
       <c r="AQ61" s="13" t="n">
-        <v>3370342</v>
+        <v>4056629</v>
       </c>
       <c r="AR61" s="13" t="n">
-        <v>4056629</v>
+        <v>3857779</v>
       </c>
       <c r="AS61" s="13" t="n">
-        <v>3857779</v>
+        <v>3708644</v>
       </c>
       <c r="AT61" s="13" t="n">
-        <v>3708644</v>
-      </c>
-      <c r="AU61" s="13" t="n">
         <v>4040445</v>
+      </c>
+      <c r="AU61" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AV61" s="13" t="s">
         <v>57</v>
@@ -9197,44 +9197,44 @@
       <c r="W62" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="X62" s="16" t="s">
-        <v>57</v>
+      <c r="X62" s="16" t="n">
+        <v>3161130</v>
       </c>
       <c r="Y62" s="16" t="n">
-        <v>3161130</v>
+        <v>2993219</v>
       </c>
       <c r="Z62" s="16" t="n">
-        <v>2993219</v>
+        <v>2549666</v>
       </c>
       <c r="AA62" s="16" t="n">
-        <v>2549666</v>
+        <v>2787873</v>
       </c>
       <c r="AB62" s="16" t="n">
-        <v>2787873</v>
+        <v>3096328</v>
       </c>
       <c r="AC62" s="16" t="n">
-        <v>3096328</v>
+        <v>4174558</v>
       </c>
       <c r="AD62" s="16" t="n">
-        <v>4174558</v>
+        <v>4218168</v>
       </c>
       <c r="AE62" s="16" t="n">
-        <v>4218168</v>
+        <v>4591441</v>
       </c>
       <c r="AF62" s="16" t="n">
-        <v>4591441</v>
+        <v>4662671</v>
       </c>
       <c r="AG62" s="16" t="n">
-        <v>4662671</v>
+        <v>4684077</v>
       </c>
       <c r="AH62" s="16" t="n">
-        <v>4684077</v>
+        <v>5156738</v>
       </c>
       <c r="AI62" s="16" t="n">
-        <v>5156738</v>
-      </c>
-      <c r="AJ62" s="16" t="n">
         <v>6702055</v>
+      </c>
+      <c r="AJ62" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AK62" s="16" t="s">
         <v>57</v>
